--- a/Marketing/umn.roomme.xlsx
+++ b/Marketing/umn.roomme.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Followers" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -422,12 +434,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Follower</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Contacted</t>
         </is>
@@ -440,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -450,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -460,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -470,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -480,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -500,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -520,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -530,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -540,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -550,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -560,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -570,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -580,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -590,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -600,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -610,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -620,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -630,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">

--- a/Marketing/umn.roomme.xlsx
+++ b/Marketing/umn.roomme.xlsx
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">

--- a/Marketing/umn.roomme.xlsx
+++ b/Marketing/umn.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B637"/>
+  <dimension ref="A1:B409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>grant_heim</t>
+          <t>gang_umn_on_ig</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>kira.harpster</t>
+          <t>andr3w_hunt</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ngs2465</t>
+          <t>vikmurali</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>_michellemontano</t>
+          <t>anandsrinivasan99</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>rvanhoof311</t>
+          <t>katialabash</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>abby.kaminski</t>
+          <t>sliva_marly_art</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>izzy_stout</t>
+          <t>michael896834</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>joseph_kropinak</t>
+          <t>_davidmann_</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>zaya_esterberg</t>
+          <t>tommy.molloyy</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jjmckenna17_</t>
+          <t>alex.woodbury</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>kierralevi</t>
+          <t>mo.fadlia19</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>_davidmann_</t>
+          <t>evan_blumberg82</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>danica.heibult</t>
+          <t>alivia.meyer</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>soaf_the_loaf_</t>
+          <t>sammy.umn</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>sophia_tutt</t>
+          <t>juliet_sheagren</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>sofiabella_amirante</t>
+          <t>busybeebalanced</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>karaamanda</t>
+          <t>katiee_henry</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>kendallsebasky</t>
+          <t>soniabertos</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>lcarey_4</t>
+          <t>themarshallapts</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ihasfingers2</t>
+          <t>annalisem0</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>amrutha.peri</t>
+          <t>shahd_hagelsafy</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>molly.pluemer</t>
+          <t>nolan.trinh</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>katiee_henry</t>
+          <t>haleyrogers14</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>pamelana79</t>
+          <t>max.cutting</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ellie_mirelez</t>
+          <t>lizziealsteen</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>aydinkabir</t>
+          <t>madelyn_lucile</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>lilysachs.06</t>
+          <t>addison_giannattasio</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>lilyaadkins</t>
+          <t>a_z2319</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ssgtwhitenack</t>
+          <t>lucasjki</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>kiaranewton_</t>
+          <t>yagirlevaaa</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>isaac_ingle02</t>
+          <t>cassiedoshi</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>abdi.hannan12</t>
+          <t>perrywclifton</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>spence_miller08</t>
+          <t>wplatycodon</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>cassiedoshi</t>
+          <t>indecisive_btch</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>emmetttjohnson</t>
+          <t>viviamgoncalves</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>leah_britt</t>
+          <t>ngs2465</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>amy_moss31</t>
+          <t>daniel.kilmer_</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>katya.mariaa</t>
+          <t>coc_umn</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>leoleoleoye</t>
+          <t>skye.1204</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>taylorduvarney</t>
+          <t>cocohweber</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>johnfitzimons</t>
+          <t>nepora6</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>genevieve.champine</t>
+          <t>natalia.tchomakhidze</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>andrewszews</t>
+          <t>umnhbc</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>alexiss.piotrowski</t>
+          <t>kate_korth</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>orinnjust</t>
+          <t>viglad237</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>rdc._tracee</t>
+          <t>vivecakarch</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ashleygunderson_</t>
+          <t>alexmadeit69</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>anna_christine_olson</t>
+          <t>abby.maatz</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>kenzillies</t>
+          <t>natalia_alia_0505</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>sophiaroyle9</t>
+          <t>evan_west3</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>maddy.ericksonn</t>
+          <t>ucommonsumn</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ashleyy.dean</t>
+          <t>hopefurdaus</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>jedeutscher10</t>
+          <t>breeflom</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>vanya_kase</t>
+          <t>_e__o__cnetsixe</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>tcommons134</t>
+          <t>abechouman</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>mia.karr</t>
+          <t>oliviamiskowskii</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>quinnericksonn</t>
+          <t>kaden.kirsch</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>djnikx_</t>
+          <t>m.blodgett10</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>colinsundeen</t>
+          <t>_sampeterss_</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>michaelhackett_</t>
+          <t>payton_goduto</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>fizztulane</t>
+          <t>payton.johnston_</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>evan_shurson</t>
+          <t>cgj12345</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>schlough.abby</t>
+          <t>bella.geno</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>hannah.langeberg</t>
+          <t>puregold.clearglass</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>aryasn_12209</t>
+          <t>anna_christine_olson</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>sophiameents</t>
+          <t>ryan_kopp10</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>emmettlaurentt</t>
+          <t>mason_howard13</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>marisa.johanning</t>
+          <t>lexiewyman_</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>kelsey.kettner</t>
+          <t>sranderson101</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>briannaestness</t>
+          <t>thalia_blevins11</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>romewili</t>
+          <t>grant1423</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>anna_adamson</t>
+          <t>martaasmith</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>natalia.tchomakhidze</t>
+          <t>sanc04_</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>zoezweber</t>
+          <t>benjaminblinn</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>staceface_rdhd</t>
+          <t>ellazeutschel</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>sophie.i.lynch</t>
+          <t>bryan_yan1</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>audrey.nygaard</t>
+          <t>brady2850</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>umiami.2028</t>
+          <t>felipe_vazquez04</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>andingcrystal</t>
+          <t>charliesorensen29</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>emerson_mae_</t>
+          <t>maya_bueso</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>louknanebear</t>
+          <t>kiaranewton_</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>joeymezei</t>
+          <t>rdc._tracee</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>saarahhassan._</t>
+          <t>victoria.andreano</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>hamid.namana</t>
+          <t>jeevan_1824</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>emily_sprang</t>
+          <t>ashkutz700</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>isa.rodriguez405</t>
+          <t>ev.aanderson</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>jackmadden2023</t>
+          <t>that_jueneboy</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>sofia.parrdo</t>
+          <t>__carlyanderson__</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>tarunevani</t>
+          <t>maxcarcamob</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1338,7 +1338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ari_ayala_321</t>
+          <t>utermarck</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>codybusch23</t>
+          <t>michael_steidle3</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1358,7 +1358,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>asad.abdi_</t>
+          <t>ashley_knettel</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>jordan.willeck</t>
+          <t>wyattfathermickgaming</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1378,7 +1378,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>evan_blumberg82</t>
+          <t>katya.mariaa</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1388,7 +1388,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>gianghto</t>
+          <t>_eliza.albert</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1398,7 +1398,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>redmondapartments</t>
+          <t>ldpmacandcheese</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>abbyw_76</t>
+          <t>sigmapiumn</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1418,7 +1418,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>harrybaum_</t>
+          <t>natemunnagle</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>a.schloesser</t>
+          <t>elizabeth.longg</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>sophiadinsmore1</t>
+          <t>saragraff_</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1448,7 +1448,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ben.blahosky</t>
+          <t>jack.urt</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>alm211</t>
+          <t>freshwaterscents</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1468,7 +1468,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>martaasmith</t>
+          <t>jazzywhooo</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1478,7 +1478,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>umnisye</t>
+          <t>lizzie.hartlieb</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -1488,7 +1488,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>dzoubs16</t>
+          <t>shannapolance</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -1498,7 +1498,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>madelyn_lucile</t>
+          <t>holleemunson</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -1508,7 +1508,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>sam.silverman1</t>
+          <t>gabs.rinado</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -1518,7 +1518,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>elizabeth.jacques23</t>
+          <t>voyageurmom</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>cara_mcgary05</t>
+          <t>maurajuedes</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -1538,7 +1538,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ben.hogann</t>
+          <t>joe_frundt</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>kya.bertram</t>
+          <t>sophiameents</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>joe.krattley</t>
+          <t>leah_britt</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>logan.linnertz</t>
+          <t>jdnellie</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -1578,7 +1578,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>autumn.whited</t>
+          <t>maddyvandergeest</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -1588,7 +1588,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>joe_frundt</t>
+          <t>madchen.ewig</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>_roxannelovelife</t>
+          <t>evajuliana315</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ciaccio_9</t>
+          <t>ryoya.yamada</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>sierrelumpkin</t>
+          <t>henrymolhoek</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>coc_umn</t>
+          <t>benletvin</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>sophia_nortwen</t>
+          <t>umn_ruf</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -1648,207 +1648,207 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>josephinehultgren</t>
+          <t>ashtonfoulkemn</t>
         </is>
       </c>
       <c r="B122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>tysvenby</t>
+          <t>ari_ayala_321</t>
         </is>
       </c>
       <c r="B123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>jessicarae075</t>
+          <t>soaf_the_loaf_</t>
         </is>
       </c>
       <c r="B124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ace12343</t>
+          <t>lukegrant04</t>
         </is>
       </c>
       <c r="B125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>angel_de_jesus777</t>
+          <t>jellyboy_lmax</t>
         </is>
       </c>
       <c r="B126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>viglad237</t>
+          <t>ihasfingers2</t>
         </is>
       </c>
       <c r="B127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>bres.lash.vanity</t>
+          <t>lily_spaulding</t>
         </is>
       </c>
       <c r="B128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>kylynlovell</t>
+          <t>ava.nellans</t>
         </is>
       </c>
       <c r="B129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>laneybay23</t>
+          <t>bryce.albrecht_</t>
         </is>
       </c>
       <c r="B130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>emaleigh.hulet</t>
+          <t>ryleeeaster</t>
         </is>
       </c>
       <c r="B131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>lucyyy.richburg</t>
+          <t>jennasoerens_</t>
         </is>
       </c>
       <c r="B132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>beatriiz.xox</t>
+          <t>devin_koskey11</t>
         </is>
       </c>
       <c r="B133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>izzydobbinss</t>
+          <t>graceturchin</t>
         </is>
       </c>
       <c r="B134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>badel3636</t>
+          <t>ella.seboe</t>
         </is>
       </c>
       <c r="B135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>aroniiiameniii</t>
+          <t>willy_arana_n</t>
         </is>
       </c>
       <c r="B136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>_alex_larson</t>
+          <t>umnco28</t>
         </is>
       </c>
       <c r="B137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>marissa.koerber</t>
+          <t>caleb_kuseske19</t>
         </is>
       </c>
       <c r="B138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>_annikaopsahl_</t>
+          <t>_angelholm_22</t>
         </is>
       </c>
       <c r="B139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>fluridad</t>
+          <t>c_tauber23</t>
         </is>
       </c>
       <c r="B140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>jadenrust</t>
+          <t>marko.apartments</t>
         </is>
       </c>
       <c r="B141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>sophialancastr</t>
+          <t>thequadondelaware</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -1858,7 +1858,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>dyl_allamon</t>
+          <t>tysvenby</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -1868,7 +1868,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>groovesalonco</t>
+          <t>charlienotcharless</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -1878,7 +1878,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>iz_jones</t>
+          <t>tuyishimir2</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -1888,7 +1888,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>addie.lerfald</t>
+          <t>oliviasoiseth</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -1898,7 +1898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>reneesrun_</t>
+          <t>jaydenshockman_</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -1908,7 +1908,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>nickspamspam</t>
+          <t>logan.linnertz</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -1918,7 +1918,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>shobin_a</t>
+          <t>avery_keller257</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -1928,7 +1928,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>madilynnyang</t>
+          <t>mplsrooseveltfootball</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -1938,7 +1938,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>_sonalibhaskar_</t>
+          <t>macy.biebs</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -1948,7 +1948,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>samcbourne</t>
+          <t>simon.sriracha</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -1958,7 +1958,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>graceturchin</t>
+          <t>ryland_k_johnson</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -1968,7 +1968,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>brett_.johnston</t>
+          <t>amy_moss31</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -1978,7 +1978,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>brookezanski</t>
+          <t>lawanitah</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -1988,7 +1988,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>emily_brekke</t>
+          <t>regina_hersi</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -1998,7 +1998,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>annakboer</t>
+          <t>ei_spies</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2008,7 +2008,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>sasha.peterson22</t>
+          <t>josephinehultgren</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2018,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>nordloh.andy</t>
+          <t>lindsay.tierney</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2028,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>kayliekilpela</t>
+          <t>myla_zalaznik</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2038,7 +2038,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>ryleejrose</t>
+          <t>aryasn_12209</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2048,7 +2048,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>brooklynzrust</t>
+          <t>nicked8</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2058,7 +2058,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>mlsteiner05</t>
+          <t>amrutha.peri</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2068,7 +2068,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>jacqui_kelly03</t>
+          <t>aryel.connelly</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2078,7 +2078,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>lindsay.tierney</t>
+          <t>rowanhatchetttt</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2098,7 +2098,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>sanc04_</t>
+          <t>claral097</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2108,7 +2108,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>anika.jaspal</t>
+          <t>taryn_schricker</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2118,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>policethx</t>
+          <t>sophia_sanders20</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2128,7 +2128,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>shellyann8883</t>
+          <t>xx__dwh__xx</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2138,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>jdnellie</t>
+          <t>thetachi.umn</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -2148,7 +2148,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>izzy.springer</t>
+          <t>rileythelemann</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -2158,7 +2158,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>_marina_farmer</t>
+          <t>lexi.halgrimson</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -2168,7 +2168,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>_katherineryann</t>
+          <t>sam.silverman1</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -2178,7 +2178,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>_aliyah.nunn</t>
+          <t>madilynnyang</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -2188,7 +2188,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>isabeliannacchino</t>
+          <t>annisanguyens</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -2198,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>megan_steinmetz</t>
+          <t>quaddmommy</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -2208,7 +2208,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>abhi__navvv</t>
+          <t>joshua_hoashin</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -2218,7 +2218,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>lexy_kakacek</t>
+          <t>kevin.huberx</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -2228,7 +2228,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>drew.kaluza</t>
+          <t>josh.neuenschwander</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -2238,7 +2238,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>manasa_yerriboyina</t>
+          <t>emaleigh.hulet</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -2248,7 +2248,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>grace.wehri</t>
+          <t>anika.jaspal</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -2258,7 +2258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>angrejbal422</t>
+          <t>woodyhandley</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>josh.oteri</t>
+          <t>_maxloge</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -2278,7 +2278,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>daniel.kilmer_</t>
+          <t>brooke.08</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -2288,7 +2288,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>angelicaruiz14</t>
+          <t>zanderroemer</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -2298,7 +2298,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>cynthiamghannoum</t>
+          <t>ian_gekara_</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -2308,7 +2308,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>gracemignone</t>
+          <t>prathulrao</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -2318,7 +2318,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>cole_b_p</t>
+          <t>ava.scroggins</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -2328,7 +2328,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>triinite</t>
+          <t>evergreens_and_lace_boutique</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -2338,7 +2338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>heaven._gg</t>
+          <t>tarunevani</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -2348,7 +2348,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>alex_alba2.5</t>
+          <t>sofia.parrdo</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -2358,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>kaden.kirsch</t>
+          <t>mariamsoleiman__</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -2368,7 +2368,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>thequadondelaware</t>
+          <t>emerson_mae_</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -2378,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>benjaminblinn</t>
+          <t>destinee_fregoso</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -2388,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>zea.brown</t>
+          <t>cole_b_p</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -2398,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>jennyknaebemeulemans</t>
+          <t>justaspam938471</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -2408,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>zaynahqamar</t>
+          <t>kayannasmarie</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -2418,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>diversityumn</t>
+          <t>justice.rylee</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -2428,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>ginakazmerski</t>
+          <t>kathryn_xiong</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -2438,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>andrew_alsum</t>
+          <t>ava_abryzo</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -2448,7 +2448,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>michael.yangwakuee</t>
+          <t>manasa_yerriboyina</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>robert.weclew</t>
+          <t>shangkang_xz</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -2468,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>wyattfathermickgaming</t>
+          <t>devynthomas_</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>leo.anders0n</t>
+          <t>diversityumn</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -2488,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>victoria.andreano</t>
+          <t>madie.flodeen</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>michael896834</t>
+          <t>iuc_4s</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -2508,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>pollylehman</t>
+          <t>dawakhim</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -2518,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>nich.greene</t>
+          <t>erickrist.5</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -2528,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>abrahamb101</t>
+          <t>lindsey1watson</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -2538,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>ava_abryzo</t>
+          <t>eitanschoenberg</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -2548,7 +2548,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>thalia_blevins11</t>
+          <t>lauren.rhode_</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -2558,7 +2558,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>madisonnregina</t>
+          <t>kellshockman</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -2568,7 +2568,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>a_z2319</t>
+          <t>_aaronnovick</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -2578,7 +2578,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>emmett.schumacher</t>
+          <t>rons0sa</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -2588,7 +2588,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>alexmadeit69</t>
+          <t>jeffjones69967</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -2598,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>_caseypeltier</t>
+          <t>jreinhardt2</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -2608,7 +2608,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>jellyboy_lmax</t>
+          <t>elliepthayer</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -2618,7 +2618,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>leah_schreck_64</t>
+          <t>jcords312</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -2628,7 +2628,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>suzanne_fogarty</t>
+          <t>sofia_nora4</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -2638,7 +2638,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>shooter_mcdavan</t>
+          <t>meganstricklnd</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -2648,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>brian.po.wen</t>
+          <t>bellesalisburyy</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -2658,7 +2658,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>lily._.dino</t>
+          <t>romanluck5</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -2668,7 +2668,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>sydneyleston</t>
+          <t>shooter_mcdavan</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -2678,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>nicolemp1979</t>
+          <t>marissa.brinkmann</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -2688,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>berkleyhagedorn</t>
+          <t>sell.ella</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -2698,7 +2698,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>emmalyn.m.t</t>
+          <t>nadia.kim14</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -2708,7 +2708,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>rmpjohnson</t>
+          <t>deya.ahm</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -2718,7 +2718,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>ellorarangel</t>
+          <t>yugo.412lofts</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -2728,7 +2728,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>carrolinasierra</t>
+          <t>genevalandonn</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -2738,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>jacob_tietz</t>
+          <t>jandgrall</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -2748,7 +2748,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>audra.heier</t>
+          <t>maxpeterson81</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -2758,7 +2758,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>busybeebalanced</t>
+          <t>cole_james917</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -2768,7 +2768,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>lexi.halgrimson</t>
+          <t>toddtormanen</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -2778,7 +2778,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>abby.maatz</t>
+          <t>ellakst.myer</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -2788,7 +2788,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>homerjaymn</t>
+          <t>alison.m._</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -2798,7 +2798,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>eydiemyers</t>
+          <t>sirena.r01</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -2808,7 +2808,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>evergreens_and_lace_boutique</t>
+          <t>milesgstewart</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -2818,7 +2818,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>annika__evelyn</t>
+          <t>siennaaperkins</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -2828,7 +2828,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>ilianabalok</t>
+          <t>jenschd</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -2838,7 +2838,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>denisvrsevci</t>
+          <t>kev1n.mart1nez</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -2848,7 +2848,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>joshua_hoashin</t>
+          <t>isaac_ingle02</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -2858,7 +2858,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>lon.bennett.505</t>
+          <t>nicknelson0</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -2868,7 +2868,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>sahisnu_segu</t>
+          <t>ilianabalok</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -2878,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>macy.biebs</t>
+          <t>aydinkabir</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -2888,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>carlishaps</t>
+          <t>charliehussin</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>maddiehirsch_</t>
+          <t>umnisye</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>ashley_knettel</t>
+          <t>josephine_audrey</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>abechouman</t>
+          <t>tess_freitag</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -2928,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>lduck53</t>
+          <t>annamariemurphyy</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -2938,7 +2938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>breckinjones11</t>
+          <t>chaselschwartz</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -2948,7 +2948,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>ones_and_zer0s</t>
+          <t>andicas01</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -2958,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>amara_isham17</t>
+          <t>christian.tiera</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>souleutions</t>
+          <t>nicholasmbriggs0</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -2978,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>unparalleled_parking</t>
+          <t>alex_emaci</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -2988,7 +2988,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>gracie.gilbertson</t>
+          <t>josh_lazar123</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -2998,7 +2998,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>_matthew.culligan</t>
+          <t>maxmcenelly_</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -3008,7 +3008,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>belladols</t>
+          <t>emmetttjohnson</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -3018,7 +3018,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>carolesanderss</t>
+          <t>viktor_radev</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -3028,7 +3028,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>claral097</t>
+          <t>mahmoud.aouam</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -3038,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>liamguthrie_</t>
+          <t>codybusch23</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -3048,7 +3048,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>leo.ohm</t>
+          <t>fieldhousedinkytown</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -3058,7 +3058,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>ben_pullis</t>
+          <t>kevi.polk</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>ella.seboe</t>
+          <t>cynthiamghannoum</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>keener_248</t>
+          <t>john_jsbbb</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>ryan_cardenas09</t>
+          <t>mady_nordstrom_</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>siennaaperkins</t>
+          <t>sydneypetersonnn</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -3108,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>ei_spies</t>
+          <t>czech.ethan</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -3118,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>matthew_gunter874</t>
+          <t>joeyschmidt15</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -3128,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t_gilbert_</t>
+          <t>grace.wehri</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -3138,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>ucommonsumn</t>
+          <t>mckennaroberts_</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -3148,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>maya_bueso</t>
+          <t>_roxannelovelife</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>emma.sandquistt</t>
+          <t>jkrags23</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -3168,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>eleanorberkness</t>
+          <t>denisvrsevci</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -3178,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>audreyywolff</t>
+          <t>aby.roush</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -3188,7 +3188,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>maddi.mcknight21</t>
+          <t>cassi.sosinski</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -3198,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>perrywclifton</t>
+          <t>briahoffarth</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -3208,7 +3208,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>_angelholm_22</t>
+          <t>_samrinzel</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -3218,7 +3218,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>tatenarr</t>
+          <t>sokmen_yem</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -3228,7 +3228,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>gabriela.kotovsky</t>
+          <t>eleanorberkness</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -3238,7 +3238,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>abry_fit</t>
+          <t>leannatran_</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -3248,7 +3248,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>_brady.shanahan</t>
+          <t>graceweber30</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>domsca16</t>
+          <t>ones_and_zer0s</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>christiemunsonn</t>
+          <t>louknanebear</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>blakebeissel</t>
+          <t>travypatty84</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -3288,7 +3288,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>ashley.karls</t>
+          <t>flannerycotner</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>juliet_sheagren</t>
+          <t>llexihauser</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>lukegrant04</t>
+          <t>_rodas0</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -3318,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>freshwaterscents</t>
+          <t>ethanjhofmeister</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>tonyliu2158</t>
+          <t>gracepraxmarer</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>sranderson101</t>
+          <t>shortlypmd</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>siri.tangeti</t>
+          <t>liviaveit</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>zoe_hammer0809</t>
+          <t>julie.edman</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>leej0311</t>
+          <t>danielaokeefe04</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>mahmoud.aouam</t>
+          <t>_annleigh</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>lucasjki</t>
+          <t>caleb.norton_17</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>brittney.ng12</t>
+          <t>caleb_mcgrath23</t>
         </is>
       </c>
       <c r="B297" t="b">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>christian.tiera</t>
+          <t>groovesalonco</t>
         </is>
       </c>
       <c r="B298" t="b">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>ceo.strah</t>
+          <t>jaxon.huber</t>
         </is>
       </c>
       <c r="B299" t="b">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>kingbobjr100</t>
+          <t>miracleheidi</t>
         </is>
       </c>
       <c r="B300" t="b">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>xx__dwh__xx</t>
+          <t>arnav.garg25</t>
         </is>
       </c>
       <c r="B301" t="b">
@@ -3448,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>oliviasoiseth</t>
+          <t>stelelor21</t>
         </is>
       </c>
       <c r="B302" t="b">
@@ -3458,7 +3458,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>kimsanders44</t>
+          <t>yjymywjcwpnh8</t>
         </is>
       </c>
       <c r="B303" t="b">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>ksj_ksjohnson</t>
+          <t>nataliealecu</t>
         </is>
       </c>
       <c r="B304" t="b">
@@ -3478,7 +3478,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>julie.edman</t>
+          <t>sofielocati</t>
         </is>
       </c>
       <c r="B305" t="b">
@@ -3488,7 +3488,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>kennediedustin</t>
+          <t>kenzillies</t>
         </is>
       </c>
       <c r="B306" t="b">
@@ -3498,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>travypatty84</t>
+          <t>kyleemccaffery</t>
         </is>
       </c>
       <c r="B307" t="b">
@@ -3508,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>kieraorourke__</t>
+          <t>laneybay23</t>
         </is>
       </c>
       <c r="B308" t="b">
@@ -3518,7 +3518,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>saragraff_</t>
+          <t>ming_0.28</t>
         </is>
       </c>
       <c r="B309" t="b">
@@ -3528,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>izaanranaa</t>
+          <t>brooklynzrust</t>
         </is>
       </c>
       <c r="B310" t="b">
@@ -3538,7 +3538,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>mara.willette</t>
+          <t>sidneykasper</t>
         </is>
       </c>
       <c r="B311" t="b">
@@ -3548,7 +3548,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>tommy.molloyy</t>
+          <t>joeymezei</t>
         </is>
       </c>
       <c r="B312" t="b">
@@ -3558,7 +3558,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>alyssa_klok</t>
+          <t>freshfrosh_</t>
         </is>
       </c>
       <c r="B313" t="b">
@@ -3568,7 +3568,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>mckensey.ausen</t>
+          <t>ginakazmerski</t>
         </is>
       </c>
       <c r="B314" t="b">
@@ -3578,7 +3578,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>kaykay_kaylah</t>
+          <t>fluridad</t>
         </is>
       </c>
       <c r="B315" t="b">
@@ -3588,7 +3588,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>zoey_carda</t>
+          <t>mallory__nelson</t>
         </is>
       </c>
       <c r="B316" t="b">
@@ -3598,7 +3598,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>_samrinzel</t>
+          <t>zaya_esterberg</t>
         </is>
       </c>
       <c r="B317" t="b">
@@ -3608,7 +3608,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>holleemunson</t>
+          <t>john_dudd</t>
         </is>
       </c>
       <c r="B318" t="b">
@@ -3618,7 +3618,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>brady_hart2</t>
+          <t>blakebeissel</t>
         </is>
       </c>
       <c r="B319" t="b">
@@ -3628,7 +3628,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>lily.gundrum</t>
+          <t>alexlara456</t>
         </is>
       </c>
       <c r="B320" t="b">
@@ -3638,7 +3638,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>whoislex18</t>
+          <t>gabbi_ashpole</t>
         </is>
       </c>
       <c r="B321" t="b">
@@ -3648,7 +3648,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>max.hagestad</t>
+          <t>kristian_hoffman2022</t>
         </is>
       </c>
       <c r="B322" t="b">
@@ -3658,7 +3658,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>puregold.clearglass</t>
+          <t>kierralevi</t>
         </is>
       </c>
       <c r="B323" t="b">
@@ -3668,7 +3668,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>xander_anderson1225</t>
+          <t>angel_de_jesus777</t>
         </is>
       </c>
       <c r="B324" t="b">
@@ -3678,7 +3678,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>danielaokeefe04</t>
+          <t>c_tautges</t>
         </is>
       </c>
       <c r="B325" t="b">
@@ -3688,7 +3688,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>ironmac54</t>
+          <t>alexander_tls47</t>
         </is>
       </c>
       <c r="B326" t="b">
@@ -3698,7 +3698,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>_whitelauren</t>
+          <t>will.r.anderson</t>
         </is>
       </c>
       <c r="B327" t="b">
@@ -3708,7 +3708,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>stone.chen</t>
+          <t>ananyaraval05</t>
         </is>
       </c>
       <c r="B328" t="b">
@@ -3718,7 +3718,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>jnzcar</t>
+          <t>lucy.kurup</t>
         </is>
       </c>
       <c r="B329" t="b">
@@ -3728,7 +3728,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>caleb.norton_17</t>
+          <t>_niceverson_</t>
         </is>
       </c>
       <c r="B330" t="b">
@@ -3738,7 +3738,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>maggieengebretson</t>
+          <t>policethx</t>
         </is>
       </c>
       <c r="B331" t="b">
@@ -3748,7 +3748,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>devon.losey</t>
+          <t>autumn.whited</t>
         </is>
       </c>
       <c r="B332" t="b">
@@ -3758,7 +3758,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>_rodas0</t>
+          <t>whitneytruesdell</t>
         </is>
       </c>
       <c r="B333" t="b">
@@ -3768,7 +3768,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>jjasminepatel</t>
+          <t>lleyton_lee</t>
         </is>
       </c>
       <c r="B334" t="b">
@@ -3778,7 +3778,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>cole_james917</t>
+          <t>romewili</t>
         </is>
       </c>
       <c r="B335" t="b">
@@ -3788,7 +3788,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>nicknelson0</t>
+          <t>___hannah_emma___</t>
         </is>
       </c>
       <c r="B336" t="b">
@@ -3798,7 +3798,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>kate_korth</t>
+          <t>ahshaam_abu</t>
         </is>
       </c>
       <c r="B337" t="b">
@@ -3808,7 +3808,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>alexlara456</t>
+          <t>triinite</t>
         </is>
       </c>
       <c r="B338" t="b">
@@ -3818,7 +3818,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>bella.geno</t>
+          <t>mj1brew</t>
         </is>
       </c>
       <c r="B339" t="b">
@@ -3828,7 +3828,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>darby.odwyer</t>
+          <t>jarrodsollady</t>
         </is>
       </c>
       <c r="B340" t="b">
@@ -3838,7 +3838,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>c_tauber23</t>
+          <t>cooper.neu</t>
         </is>
       </c>
       <c r="B341" t="b">
@@ -3848,7 +3848,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>arnav.garg25</t>
+          <t>tonyliu2158</t>
         </is>
       </c>
       <c r="B342" t="b">
@@ -3858,7 +3858,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>emalone456</t>
+          <t>henry4ly</t>
         </is>
       </c>
       <c r="B343" t="b">
@@ -3868,7 +3868,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>jadalynjoness</t>
+          <t>tsionkonjo05</t>
         </is>
       </c>
       <c r="B344" t="b">
@@ -3878,7 +3878,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>celiazrust</t>
+          <t>patrick_conr0y</t>
         </is>
       </c>
       <c r="B345" t="b">
@@ -3888,7 +3888,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>abbey.mpearson</t>
+          <t>unparalleled_parking</t>
         </is>
       </c>
       <c r="B346" t="b">
@@ -3898,7 +3898,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>m.blodgett10</t>
+          <t>zeeshqamar</t>
         </is>
       </c>
       <c r="B347" t="b">
@@ -3908,7 +3908,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>maddiescott37</t>
+          <t>wyatth0lt</t>
         </is>
       </c>
       <c r="B348" t="b">
@@ -3918,7 +3918,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>nitaa.tt</t>
+          <t>ko_grogin</t>
         </is>
       </c>
       <c r="B349" t="b">
@@ -3928,7 +3928,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>andr3w_hunt</t>
+          <t>brody.laska</t>
         </is>
       </c>
       <c r="B350" t="b">
@@ -3938,7 +3938,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>brooke.08</t>
+          <t>dreamsuwat</t>
         </is>
       </c>
       <c r="B351" t="b">
@@ -3948,7 +3948,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>lawanitah</t>
+          <t>keener_248</t>
         </is>
       </c>
       <c r="B352" t="b">
@@ -3958,7 +3958,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>_jack_akiva2</t>
+          <t>abrahamb101</t>
         </is>
       </c>
       <c r="B353" t="b">
@@ -3968,7 +3968,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>olivia.osvold</t>
+          <t>jnzcar</t>
         </is>
       </c>
       <c r="B354" t="b">
@@ -3978,7 +3978,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>ashtonfoulkemn</t>
+          <t>nora_doyle_</t>
         </is>
       </c>
       <c r="B355" t="b">
@@ -3988,7 +3988,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>natalia_alia_0505</t>
+          <t>abry_fit</t>
         </is>
       </c>
       <c r="B356" t="b">
@@ -3998,7 +3998,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>vikmurali</t>
+          <t>grazziotin78</t>
         </is>
       </c>
       <c r="B357" t="b">
@@ -4008,7 +4008,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>colemaddio_</t>
+          <t>kate_farbie_mwende</t>
         </is>
       </c>
       <c r="B358" t="b">
@@ -4018,7 +4018,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>evajuliana315</t>
+          <t>smoalim30</t>
         </is>
       </c>
       <c r="B359" t="b">
@@ -4028,7 +4028,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>zachreifff</t>
+          <t>svfreitag</t>
         </is>
       </c>
       <c r="B360" t="b">
@@ -4038,7 +4038,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>claragordonn</t>
+          <t>dzoubs16</t>
         </is>
       </c>
       <c r="B361" t="b">
@@ -4048,7 +4048,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>andreablumberg5</t>
+          <t>adhithi_maran</t>
         </is>
       </c>
       <c r="B362" t="b">
@@ -4058,7 +4058,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>nathantran1204</t>
+          <t>neeraj_m23</t>
         </is>
       </c>
       <c r="B363" t="b">
@@ -4068,7 +4068,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>dreamsuwat</t>
+          <t>3sjsjs2dndn000</t>
         </is>
       </c>
       <c r="B364" t="b">
@@ -4078,7 +4078,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>ashlyn.gramm</t>
+          <t>umn_languages</t>
         </is>
       </c>
       <c r="B365" t="b">
@@ -4088,7 +4088,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>aliyah_busby13</t>
+          <t>addyhartway</t>
         </is>
       </c>
       <c r="B366" t="b">
@@ -4098,7 +4098,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>jolie.stocke</t>
+          <t>maddiehirsch_</t>
         </is>
       </c>
       <c r="B367" t="b">
@@ -4108,7 +4108,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>elliepthayer</t>
+          <t>hannahchebert23</t>
         </is>
       </c>
       <c r="B368" t="b">
@@ -4118,7 +4118,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>_sampeterss_</t>
+          <t>alex_645_</t>
         </is>
       </c>
       <c r="B369" t="b">
@@ -4128,7 +4128,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>devin_koskey11</t>
+          <t>emmett.schumacher</t>
         </is>
       </c>
       <c r="B370" t="b">
@@ -4138,7 +4138,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>ida.devries</t>
+          <t>kas_arm</t>
         </is>
       </c>
       <c r="B371" t="b">
@@ -4148,7 +4148,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>brittanymak1</t>
+          <t>rachael.tsoi</t>
         </is>
       </c>
       <c r="B372" t="b">
@@ -4158,7 +4158,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>milapekarek</t>
+          <t>homerjaymn</t>
         </is>
       </c>
       <c r="B373" t="b">
@@ -4168,7 +4168,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>nicktaylorr22</t>
+          <t>ceo.strah</t>
         </is>
       </c>
       <c r="B374" t="b">
@@ -4178,7 +4178,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>jbakalinsky</t>
+          <t>libbydingmann</t>
         </is>
       </c>
       <c r="B375" t="b">
@@ -4188,7 +4188,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>emilymartin45</t>
+          <t>brittanymak1</t>
         </is>
       </c>
       <c r="B376" t="b">
@@ -4198,7 +4198,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>zachary.smollin</t>
+          <t>reya.hadsall</t>
         </is>
       </c>
       <c r="B377" t="b">
@@ -4208,7 +4208,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>tannerk12</t>
+          <t>patrick_lawrence6</t>
         </is>
       </c>
       <c r="B378" t="b">
@@ -4218,7 +4218,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>jenni_weber1</t>
+          <t>sophialancastr</t>
         </is>
       </c>
       <c r="B379" t="b">
@@ -4228,7 +4228,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>sidneykasper</t>
+          <t>naasib28</t>
         </is>
       </c>
       <c r="B380" t="b">
@@ -4238,7 +4238,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>joeyschmidt15</t>
+          <t>saaransh_agarwal</t>
         </is>
       </c>
       <c r="B381" t="b">
@@ -4248,7 +4248,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>coralbrekken</t>
+          <t>jennyknaebemeulemans</t>
         </is>
       </c>
       <c r="B382" t="b">
@@ -4258,7 +4258,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>c_tautges</t>
+          <t>fizztulane</t>
         </is>
       </c>
       <c r="B383" t="b">
@@ -4268,7 +4268,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>meganstricklnd</t>
+          <t>maggieengebretson</t>
         </is>
       </c>
       <c r="B384" t="b">
@@ -4278,7 +4278,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>sokmen_yem</t>
+          <t>kayliekilpela</t>
         </is>
       </c>
       <c r="B385" t="b">
@@ -4288,7 +4288,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>cassi.sosinski</t>
+          <t>lily._.dino</t>
         </is>
       </c>
       <c r="B386" t="b">
@@ -4298,7 +4298,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>kevi.polk</t>
+          <t>isabella.colls</t>
         </is>
       </c>
       <c r="B387" t="b">
@@ -4308,7 +4308,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>breeflom</t>
+          <t>annika__evelyn</t>
         </is>
       </c>
       <c r="B388" t="b">
@@ -4318,7 +4318,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>ava.nellans</t>
+          <t>_sonalibhaskar_</t>
         </is>
       </c>
       <c r="B389" t="b">
@@ -4328,7 +4328,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>jaydenshockman_</t>
+          <t>madisonnregina</t>
         </is>
       </c>
       <c r="B390" t="b">
@@ -4338,7 +4338,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>annalisem0</t>
+          <t>jacqui_kelly03</t>
         </is>
       </c>
       <c r="B391" t="b">
@@ -4348,7 +4348,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>will.r.anderson</t>
+          <t>alex_ramosrr</t>
         </is>
       </c>
       <c r="B392" t="b">
@@ -4358,7 +4358,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>rachael.tsoi</t>
+          <t>zea.brown</t>
         </is>
       </c>
       <c r="B393" t="b">
@@ -4368,7 +4368,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>braydeneschmitz</t>
+          <t>manny_lister</t>
         </is>
       </c>
       <c r="B394" t="b">
@@ -4378,7 +4378,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>kate_farbie_mwende</t>
+          <t>giangbonamto</t>
         </is>
       </c>
       <c r="B395" t="b">
@@ -4388,7 +4388,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>emily.martiin</t>
+          <t>christinewilkins</t>
         </is>
       </c>
       <c r="B396" t="b">
@@ -4398,7 +4398,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>viviamgoncalves</t>
+          <t>bora.nimisha</t>
         </is>
       </c>
       <c r="B397" t="b">
@@ -4408,7 +4408,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>bex___d</t>
+          <t>colemaddio_</t>
         </is>
       </c>
       <c r="B398" t="b">
@@ -4418,7 +4418,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>jandgrall</t>
+          <t>anthonyandersonm</t>
         </is>
       </c>
       <c r="B399" t="b">
@@ -4428,7 +4428,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>leopold.tb</t>
+          <t>grant_geis</t>
         </is>
       </c>
       <c r="B400" t="b">
@@ -4438,7 +4438,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>alison.m._</t>
+          <t>anna_adamson</t>
         </is>
       </c>
       <c r="B401" t="b">
@@ -4448,7 +4448,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>sophia_martin7</t>
+          <t>_wilson.max</t>
         </is>
       </c>
       <c r="B402" t="b">
@@ -4458,7 +4458,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>maddyvandergeest</t>
+          <t>ixiong181</t>
         </is>
       </c>
       <c r="B403" t="b">
@@ -4468,7 +4468,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>armineutas</t>
+          <t>pamelana79</t>
         </is>
       </c>
       <c r="B404" t="b">
@@ -4478,7 +4478,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>its_not_hope</t>
+          <t>jeffrey_boafo</t>
         </is>
       </c>
       <c r="B405" t="b">
@@ -4488,7 +4488,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>skye.1204</t>
+          <t>lexi.addie</t>
         </is>
       </c>
       <c r="B406" t="b">
@@ -4498,7 +4498,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>kyliejojenks</t>
+          <t>imnzzzzzz15</t>
         </is>
       </c>
       <c r="B407" t="b">
@@ -4508,7 +4508,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>prathulrao</t>
+          <t>nordloh.andy</t>
         </is>
       </c>
       <c r="B408" t="b">
@@ -4518,2290 +4518,10 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>brady2850</t>
+          <t>_jack_akiva2</t>
         </is>
       </c>
       <c r="B409" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>madchen.ewig</t>
-        </is>
-      </c>
-      <c r="B410" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>madelyn_mader</t>
-        </is>
-      </c>
-      <c r="B411" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>phirho.umn</t>
-        </is>
-      </c>
-      <c r="B412" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>mj1brew</t>
-        </is>
-      </c>
-      <c r="B413" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>kinglegit2</t>
-        </is>
-      </c>
-      <c r="B414" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="inlineStr">
-        <is>
-          <t>____terukowhegba</t>
-        </is>
-      </c>
-      <c r="B415" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>makennalutes</t>
-        </is>
-      </c>
-      <c r="B416" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="inlineStr">
-        <is>
-          <t>carlokriekels</t>
-        </is>
-      </c>
-      <c r="B417" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="inlineStr">
-        <is>
-          <t>nilo.xgxnyo</t>
-        </is>
-      </c>
-      <c r="B418" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>paulramanauskas</t>
-        </is>
-      </c>
-      <c r="B419" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>syd.schultz13</t>
-        </is>
-      </c>
-      <c r="B420" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="inlineStr">
-        <is>
-          <t>kris_zabel</t>
-        </is>
-      </c>
-      <c r="B421" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="inlineStr">
-        <is>
-          <t>breelee.berkenpas</t>
-        </is>
-      </c>
-      <c r="B422" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>owenw35</t>
-        </is>
-      </c>
-      <c r="B423" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>jennasoerens_</t>
-        </is>
-      </c>
-      <c r="B424" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="inlineStr">
-        <is>
-          <t>that_jueneboy</t>
-        </is>
-      </c>
-      <c r="B425" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="inlineStr">
-        <is>
-          <t>ryan_kopp10</t>
-        </is>
-      </c>
-      <c r="B426" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="inlineStr">
-        <is>
-          <t>cooper.neu</t>
-        </is>
-      </c>
-      <c r="B427" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="inlineStr">
-        <is>
-          <t>switchbladesx_</t>
-        </is>
-      </c>
-      <c r="B428" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" t="inlineStr">
-        <is>
-          <t>joeypennell11</t>
-        </is>
-      </c>
-      <c r="B429" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" t="inlineStr">
-        <is>
-          <t>bella.dukart</t>
-        </is>
-      </c>
-      <c r="B430" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" t="inlineStr">
-        <is>
-          <t>soniabertos</t>
-        </is>
-      </c>
-      <c r="B431" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" t="inlineStr">
-        <is>
-          <t>jbrmomma3</t>
-        </is>
-      </c>
-      <c r="B432" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" t="inlineStr">
-        <is>
-          <t>hunegsdinah</t>
-        </is>
-      </c>
-      <c r="B433" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" t="inlineStr">
-        <is>
-          <t>eesha_endure</t>
-        </is>
-      </c>
-      <c r="B434" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" t="inlineStr">
-        <is>
-          <t>loganjon24</t>
-        </is>
-      </c>
-      <c r="B435" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" t="inlineStr">
-        <is>
-          <t>ryland_k_johnson</t>
-        </is>
-      </c>
-      <c r="B436" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" t="inlineStr">
-        <is>
-          <t>erickrist.5</t>
-        </is>
-      </c>
-      <c r="B437" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" t="inlineStr">
-        <is>
-          <t>clara.griebel</t>
-        </is>
-      </c>
-      <c r="B438" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" t="inlineStr">
-        <is>
-          <t>toddtormanen</t>
-        </is>
-      </c>
-      <c r="B439" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" t="inlineStr">
-        <is>
-          <t>autumn.kathrynnn</t>
-        </is>
-      </c>
-      <c r="B440" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" t="inlineStr">
-        <is>
-          <t>ryoya.yamada</t>
-        </is>
-      </c>
-      <c r="B441" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" t="inlineStr">
-        <is>
-          <t>shortlypmd</t>
-        </is>
-      </c>
-      <c r="B442" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" t="inlineStr">
-        <is>
-          <t>ranyabouyisse</t>
-        </is>
-      </c>
-      <c r="B443" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" t="inlineStr">
-        <is>
-          <t>josh_lazar123</t>
-        </is>
-      </c>
-      <c r="B444" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" t="inlineStr">
-        <is>
-          <t>_makaylapearson_</t>
-        </is>
-      </c>
-      <c r="B445" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" t="inlineStr">
-        <is>
-          <t>maxpeterson81</t>
-        </is>
-      </c>
-      <c r="B446" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" t="inlineStr">
-        <is>
-          <t>reegan.welhaven</t>
-        </is>
-      </c>
-      <c r="B447" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" t="inlineStr">
-        <is>
-          <t>katherine.magowan</t>
-        </is>
-      </c>
-      <c r="B448" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" t="inlineStr">
-        <is>
-          <t>_wilson.max</t>
-        </is>
-      </c>
-      <c r="B449" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" t="inlineStr">
-        <is>
-          <t>jcords312</t>
-        </is>
-      </c>
-      <c r="B450" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" t="inlineStr">
-        <is>
-          <t>jada.sandvall</t>
-        </is>
-      </c>
-      <c r="B451" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" t="inlineStr">
-        <is>
-          <t>changyu._7</t>
-        </is>
-      </c>
-      <c r="B452" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" t="inlineStr">
-        <is>
-          <t>svfreitag</t>
-        </is>
-      </c>
-      <c r="B453" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" t="inlineStr">
-        <is>
-          <t>flannerycotner</t>
-        </is>
-      </c>
-      <c r="B454" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" t="inlineStr">
-        <is>
-          <t>jreinhardt2</t>
-        </is>
-      </c>
-      <c r="B455" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" t="inlineStr">
-        <is>
-          <t>alyssakampa</t>
-        </is>
-      </c>
-      <c r="B456" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" t="inlineStr">
-        <is>
-          <t>jacobneisen</t>
-        </is>
-      </c>
-      <c r="B457" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" t="inlineStr">
-        <is>
-          <t>rubyyepsen</t>
-        </is>
-      </c>
-      <c r="B458" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="inlineStr">
-        <is>
-          <t>max.cutting</t>
-        </is>
-      </c>
-      <c r="B459" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" t="inlineStr">
-        <is>
-          <t>charlienotcharless</t>
-        </is>
-      </c>
-      <c r="B460" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" t="inlineStr">
-        <is>
-          <t>rileythelemann</t>
-        </is>
-      </c>
-      <c r="B461" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" t="inlineStr">
-        <is>
-          <t>kasiacragle</t>
-        </is>
-      </c>
-      <c r="B462" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" t="inlineStr">
-        <is>
-          <t>coll_innel16</t>
-        </is>
-      </c>
-      <c r="B463" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" t="inlineStr">
-        <is>
-          <t>oliviamiskowskii</t>
-        </is>
-      </c>
-      <c r="B464" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" t="inlineStr">
-        <is>
-          <t>bryan_yan1</t>
-        </is>
-      </c>
-      <c r="B465" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" t="inlineStr">
-        <is>
-          <t>justyfoh</t>
-        </is>
-      </c>
-      <c r="B466" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" t="inlineStr">
-        <is>
-          <t>umn_bros</t>
-        </is>
-      </c>
-      <c r="B467" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" t="inlineStr">
-        <is>
-          <t>viktor_radev</t>
-        </is>
-      </c>
-      <c r="B468" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" t="inlineStr">
-        <is>
-          <t>madelyngrover</t>
-        </is>
-      </c>
-      <c r="B469" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" t="inlineStr">
-        <is>
-          <t>marenkeskey</t>
-        </is>
-      </c>
-      <c r="B470" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" t="inlineStr">
-        <is>
-          <t>kayannasmarie</t>
-        </is>
-      </c>
-      <c r="B471" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" t="inlineStr">
-        <is>
-          <t>raven_mily_art</t>
-        </is>
-      </c>
-      <c r="B472" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" t="inlineStr">
-        <is>
-          <t>sophieeiselt</t>
-        </is>
-      </c>
-      <c r="B473" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" t="inlineStr">
-        <is>
-          <t>indecisive_btch</t>
-        </is>
-      </c>
-      <c r="B474" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" t="inlineStr">
-        <is>
-          <t>laziech</t>
-        </is>
-      </c>
-      <c r="B475" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>josephine_audrey</t>
-        </is>
-      </c>
-      <c r="B476" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>mallory__nelson</t>
-        </is>
-      </c>
-      <c r="B477" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>brody.laska</t>
-        </is>
-      </c>
-      <c r="B478" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>cedrick244</t>
-        </is>
-      </c>
-      <c r="B479" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>kennrosss</t>
-        </is>
-      </c>
-      <c r="B480" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" t="inlineStr">
-        <is>
-          <t>gopherwrugby</t>
-        </is>
-      </c>
-      <c r="B481" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" t="inlineStr">
-        <is>
-          <t>iddinkytown</t>
-        </is>
-      </c>
-      <c r="B482" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" t="inlineStr">
-        <is>
-          <t>dawakhim</t>
-        </is>
-      </c>
-      <c r="B483" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" t="inlineStr">
-        <is>
-          <t>drew.domeier</t>
-        </is>
-      </c>
-      <c r="B484" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" t="inlineStr">
-        <is>
-          <t>haley.fabel</t>
-        </is>
-      </c>
-      <c r="B485" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" t="inlineStr">
-        <is>
-          <t>_niceverson_</t>
-        </is>
-      </c>
-      <c r="B486" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="inlineStr">
-        <is>
-          <t>_aaronnovick</t>
-        </is>
-      </c>
-      <c r="B487" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" t="inlineStr">
-        <is>
-          <t>kyliegargasz</t>
-        </is>
-      </c>
-      <c r="B488" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" t="inlineStr">
-        <is>
-          <t>caleb_kuseske19</t>
-        </is>
-      </c>
-      <c r="B489" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" t="inlineStr">
-        <is>
-          <t>jeevan_1824</t>
-        </is>
-      </c>
-      <c r="B490" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" t="inlineStr">
-        <is>
-          <t>alivia.meyer</t>
-        </is>
-      </c>
-      <c r="B491" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" t="inlineStr">
-        <is>
-          <t>stewart.j2</t>
-        </is>
-      </c>
-      <c r="B492" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" t="inlineStr">
-        <is>
-          <t>rahil_sheth_28</t>
-        </is>
-      </c>
-      <c r="B493" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" t="inlineStr">
-        <is>
-          <t>gang_umn_on_ig</t>
-        </is>
-      </c>
-      <c r="B494" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" t="inlineStr">
-        <is>
-          <t>matthewkleve</t>
-        </is>
-      </c>
-      <c r="B495" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" t="inlineStr">
-        <is>
-          <t>_eesha_k_</t>
-        </is>
-      </c>
-      <c r="B496" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="497">
-      <c r="A497" t="inlineStr">
-        <is>
-          <t>ameliaericc</t>
-        </is>
-      </c>
-      <c r="B497" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" t="inlineStr">
-        <is>
-          <t>riley_talmage23</t>
-        </is>
-      </c>
-      <c r="B498" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499" t="inlineStr">
-        <is>
-          <t>ian_gekara_</t>
-        </is>
-      </c>
-      <c r="B499" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500" t="inlineStr">
-        <is>
-          <t>taryn_schricker</t>
-        </is>
-      </c>
-      <c r="B500" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" t="inlineStr">
-        <is>
-          <t>maddiepetersen15</t>
-        </is>
-      </c>
-      <c r="B501" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" t="inlineStr">
-        <is>
-          <t>jkrags23</t>
-        </is>
-      </c>
-      <c r="B502" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" t="inlineStr">
-        <is>
-          <t>avery_keller257</t>
-        </is>
-      </c>
-      <c r="B503" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="504">
-      <c r="A504" t="inlineStr">
-        <is>
-          <t>thetachi.umn</t>
-        </is>
-      </c>
-      <c r="B504" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="505">
-      <c r="A505" t="inlineStr">
-        <is>
-          <t>johannaelizabethb</t>
-        </is>
-      </c>
-      <c r="B505" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" t="inlineStr">
-        <is>
-          <t>johannahpalmm</t>
-        </is>
-      </c>
-      <c r="B506" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" t="inlineStr">
-        <is>
-          <t>abdelkrim_lachgar</t>
-        </is>
-      </c>
-      <c r="B507" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" t="inlineStr">
-        <is>
-          <t>sawyerflatgard</t>
-        </is>
-      </c>
-      <c r="B508" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" t="inlineStr">
-        <is>
-          <t>grant_geis</t>
-        </is>
-      </c>
-      <c r="B509" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" t="inlineStr">
-        <is>
-          <t>jarrodsollady</t>
-        </is>
-      </c>
-      <c r="B510" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" t="inlineStr">
-        <is>
-          <t>hooty3465</t>
-        </is>
-      </c>
-      <c r="B511" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" t="inlineStr">
-        <is>
-          <t>thatjerimis</t>
-        </is>
-      </c>
-      <c r="B512" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" t="inlineStr">
-        <is>
-          <t>alexander_tls47</t>
-        </is>
-      </c>
-      <c r="B513" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" t="inlineStr">
-        <is>
-          <t>jenschd</t>
-        </is>
-      </c>
-      <c r="B514" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" t="inlineStr">
-        <is>
-          <t>haleyrogers14</t>
-        </is>
-      </c>
-      <c r="B515" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" t="inlineStr">
-        <is>
-          <t>michael_steidle3</t>
-        </is>
-      </c>
-      <c r="B516" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" t="inlineStr">
-        <is>
-          <t>andrewrecht</t>
-        </is>
-      </c>
-      <c r="B517" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" t="inlineStr">
-        <is>
-          <t>olivialuu__</t>
-        </is>
-      </c>
-      <c r="B518" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" t="inlineStr">
-        <is>
-          <t>lizzymburke</t>
-        </is>
-      </c>
-      <c r="B519" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" t="inlineStr">
-        <is>
-          <t>bryce.albrecht_</t>
-        </is>
-      </c>
-      <c r="B520" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" t="inlineStr">
-        <is>
-          <t>brooklyn_radecke</t>
-        </is>
-      </c>
-      <c r="B521" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" t="inlineStr">
-        <is>
-          <t>marioys.makar</t>
-        </is>
-      </c>
-      <c r="B522" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" t="inlineStr">
-        <is>
-          <t>lancaster.kenna</t>
-        </is>
-      </c>
-      <c r="B523" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" t="inlineStr">
-        <is>
-          <t>milesgstewart</t>
-        </is>
-      </c>
-      <c r="B524" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" t="inlineStr">
-        <is>
-          <t>mady_nordstrom_</t>
-        </is>
-      </c>
-      <c r="B525" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" t="inlineStr">
-        <is>
-          <t>mckennaroberts_</t>
-        </is>
-      </c>
-      <c r="B526" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" t="inlineStr">
-        <is>
-          <t>samantha.ajsenberg</t>
-        </is>
-      </c>
-      <c r="B527" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="528">
-      <c r="A528" t="inlineStr">
-        <is>
-          <t>tess_freitag</t>
-        </is>
-      </c>
-      <c r="B528" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" t="inlineStr">
-        <is>
-          <t>3sjsjs2dndn000</t>
-        </is>
-      </c>
-      <c r="B529" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" t="inlineStr">
-        <is>
-          <t>kuehlowen</t>
-        </is>
-      </c>
-      <c r="B530" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" t="inlineStr">
-        <is>
-          <t>ixiong181</t>
-        </is>
-      </c>
-      <c r="B531" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" t="inlineStr">
-        <is>
-          <t>naasib28</t>
-        </is>
-      </c>
-      <c r="B532" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" t="inlineStr">
-        <is>
-          <t>briahoffarth</t>
-        </is>
-      </c>
-      <c r="B533" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" t="inlineStr">
-        <is>
-          <t>svflats</t>
-        </is>
-      </c>
-      <c r="B534" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" t="inlineStr">
-        <is>
-          <t>charliesmoist</t>
-        </is>
-      </c>
-      <c r="B535" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" t="inlineStr">
-        <is>
-          <t>madregust</t>
-        </is>
-      </c>
-      <c r="B536" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" t="inlineStr">
-        <is>
-          <t>addielilla</t>
-        </is>
-      </c>
-      <c r="B537" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" t="inlineStr">
-        <is>
-          <t>izzy_topper</t>
-        </is>
-      </c>
-      <c r="B538" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" t="inlineStr">
-        <is>
-          <t>___michelleamelia</t>
-        </is>
-      </c>
-      <c r="B539" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" t="inlineStr">
-        <is>
-          <t>__tez__</t>
-        </is>
-      </c>
-      <c r="B540" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" t="inlineStr">
-        <is>
-          <t>rileyszymik</t>
-        </is>
-      </c>
-      <c r="B541" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" t="inlineStr">
-        <is>
-          <t>kevin96102085</t>
-        </is>
-      </c>
-      <c r="B542" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" t="inlineStr">
-        <is>
-          <t>debrao3992</t>
-        </is>
-      </c>
-      <c r="B543" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" t="inlineStr">
-        <is>
-          <t>addi.baneck</t>
-        </is>
-      </c>
-      <c r="B544" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="545">
-      <c r="A545" t="inlineStr">
-        <is>
-          <t>nadya.hudson</t>
-        </is>
-      </c>
-      <c r="B545" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="546">
-      <c r="A546" t="inlineStr">
-        <is>
-          <t>lucyhaldiss</t>
-        </is>
-      </c>
-      <c r="B546" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="547">
-      <c r="A547" t="inlineStr">
-        <is>
-          <t>itsmauro13</t>
-        </is>
-      </c>
-      <c r="B547" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="548">
-      <c r="A548" t="inlineStr">
-        <is>
-          <t>max.ikle2</t>
-        </is>
-      </c>
-      <c r="B548" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="549">
-      <c r="A549" t="inlineStr">
-        <is>
-          <t>marie_seywerd</t>
-        </is>
-      </c>
-      <c r="B549" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="550">
-      <c r="A550" t="inlineStr">
-        <is>
-          <t>kaleycaldwell_</t>
-        </is>
-      </c>
-      <c r="B550" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="551">
-      <c r="A551" t="inlineStr">
-        <is>
-          <t>andrew.wiederholt</t>
-        </is>
-      </c>
-      <c r="B551" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="552">
-      <c r="A552" t="inlineStr">
-        <is>
-          <t>erikaaturner</t>
-        </is>
-      </c>
-      <c r="B552" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="553">
-      <c r="A553" t="inlineStr">
-        <is>
-          <t>sophieroulandd</t>
-        </is>
-      </c>
-      <c r="B553" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="554">
-      <c r="A554" t="inlineStr">
-        <is>
-          <t>jeaniepreed</t>
-        </is>
-      </c>
-      <c r="B554" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="555">
-      <c r="A555" t="inlineStr">
-        <is>
-          <t>owen.haubert</t>
-        </is>
-      </c>
-      <c r="B555" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="556">
-      <c r="A556" t="inlineStr">
-        <is>
-          <t>kravmiriam</t>
-        </is>
-      </c>
-      <c r="B556" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="557">
-      <c r="A557" t="inlineStr">
-        <is>
-          <t>wyatth0lt</t>
-        </is>
-      </c>
-      <c r="B557" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="558">
-      <c r="A558" t="inlineStr">
-        <is>
-          <t>reya.hadsall</t>
-        </is>
-      </c>
-      <c r="B558" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="559">
-      <c r="A559" t="inlineStr">
-        <is>
-          <t>ishadi.agostinho</t>
-        </is>
-      </c>
-      <c r="B559" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="560">
-      <c r="A560" t="inlineStr">
-        <is>
-          <t>ep82250</t>
-        </is>
-      </c>
-      <c r="B560" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="561">
-      <c r="A561" t="inlineStr">
-        <is>
-          <t>rowanhatchetttt</t>
-        </is>
-      </c>
-      <c r="B561" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="562">
-      <c r="A562" t="inlineStr">
-        <is>
-          <t>lleyton_lee</t>
-        </is>
-      </c>
-      <c r="B562" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="563">
-      <c r="A563" t="inlineStr">
-        <is>
-          <t>mollyhickeyy_</t>
-        </is>
-      </c>
-      <c r="B563" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="564">
-      <c r="A564" t="inlineStr">
-        <is>
-          <t>rose_selle24</t>
-        </is>
-      </c>
-      <c r="B564" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="565">
-      <c r="A565" t="inlineStr">
-        <is>
-          <t>sliva_marly_art</t>
-        </is>
-      </c>
-      <c r="B565" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="566">
-      <c r="A566" t="inlineStr">
-        <is>
-          <t>riyadh4755</t>
-        </is>
-      </c>
-      <c r="B566" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="567">
-      <c r="A567" t="inlineStr">
-        <is>
-          <t>jhendricks023</t>
-        </is>
-      </c>
-      <c r="B567" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="568">
-      <c r="A568" t="inlineStr">
-        <is>
-          <t>payton_goduto</t>
-        </is>
-      </c>
-      <c r="B568" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="569">
-      <c r="A569" t="inlineStr">
-        <is>
-          <t>alexandraparent_</t>
-        </is>
-      </c>
-      <c r="B569" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="570">
-      <c r="A570" t="inlineStr">
-        <is>
-          <t>jonathanrossgoldberg</t>
-        </is>
-      </c>
-      <c r="B570" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="571">
-      <c r="A571" t="inlineStr">
-        <is>
-          <t>masonkvasager</t>
-        </is>
-      </c>
-      <c r="B571" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="572">
-      <c r="A572" t="inlineStr">
-        <is>
-          <t>khsura1</t>
-        </is>
-      </c>
-      <c r="B572" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="573">
-      <c r="A573" t="inlineStr">
-        <is>
-          <t>patrick_lawrence6</t>
-        </is>
-      </c>
-      <c r="B573" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="574">
-      <c r="A574" t="inlineStr">
-        <is>
-          <t>lorenna.hernandez16</t>
-        </is>
-      </c>
-      <c r="B574" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="575">
-      <c r="A575" t="inlineStr">
-        <is>
-          <t>meqannguyen</t>
-        </is>
-      </c>
-      <c r="B575" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="576">
-      <c r="A576" t="inlineStr">
-        <is>
-          <t>willy_arana_n</t>
-        </is>
-      </c>
-      <c r="B576" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="577">
-      <c r="A577" t="inlineStr">
-        <is>
-          <t>kev1n.mart1nez</t>
-        </is>
-      </c>
-      <c r="B577" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="578">
-      <c r="A578" t="inlineStr">
-        <is>
-          <t>nicholasmbriggs0</t>
-        </is>
-      </c>
-      <c r="B578" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="579">
-      <c r="A579" t="inlineStr">
-        <is>
-          <t>olivia.awalker</t>
-        </is>
-      </c>
-      <c r="B579" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="580">
-      <c r="A580" t="inlineStr">
-        <is>
-          <t>ej_stensland</t>
-        </is>
-      </c>
-      <c r="B580" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="581">
-      <c r="A581" t="inlineStr">
-        <is>
-          <t>carriewees</t>
-        </is>
-      </c>
-      <c r="B581" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="582">
-      <c r="A582" t="inlineStr">
-        <is>
-          <t>sarah_reisdorf</t>
-        </is>
-      </c>
-      <c r="B582" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" t="inlineStr">
-        <is>
-          <t>brooke.kraemer</t>
-        </is>
-      </c>
-      <c r="B583" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" t="inlineStr">
-        <is>
-          <t>jessbolandd</t>
-        </is>
-      </c>
-      <c r="B584" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" t="inlineStr">
-        <is>
-          <t>kkatelyngraham</t>
-        </is>
-      </c>
-      <c r="B585" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="586">
-      <c r="A586" t="inlineStr">
-        <is>
-          <t>nora_doyle_</t>
-        </is>
-      </c>
-      <c r="B586" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="587">
-      <c r="A587" t="inlineStr">
-        <is>
-          <t>lizzie.hartlieb</t>
-        </is>
-      </c>
-      <c r="B587" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" t="inlineStr">
-        <is>
-          <t>leo.rhode</t>
-        </is>
-      </c>
-      <c r="B588" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="589">
-      <c r="A589" t="inlineStr">
-        <is>
-          <t>imara.mackie</t>
-        </is>
-      </c>
-      <c r="B589" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" t="inlineStr">
-        <is>
-          <t>brigid.shane</t>
-        </is>
-      </c>
-      <c r="B590" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" t="inlineStr">
-        <is>
-          <t>cocohweber</t>
-        </is>
-      </c>
-      <c r="B591" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" t="inlineStr">
-        <is>
-          <t>emily.midthun</t>
-        </is>
-      </c>
-      <c r="B592" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" t="inlineStr">
-        <is>
-          <t>samih.23</t>
-        </is>
-      </c>
-      <c r="B593" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" t="inlineStr">
-        <is>
-          <t>emily.thuet</t>
-        </is>
-      </c>
-      <c r="B594" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" t="inlineStr">
-        <is>
-          <t>justice.rylee</t>
-        </is>
-      </c>
-      <c r="B595" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="596">
-      <c r="A596" t="inlineStr">
-        <is>
-          <t>lindsey1watson</t>
-        </is>
-      </c>
-      <c r="B596" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" t="inlineStr">
-        <is>
-          <t>loganmaanum</t>
-        </is>
-      </c>
-      <c r="B597" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="598">
-      <c r="A598" t="inlineStr">
-        <is>
-          <t>saaransh_agarwal</t>
-        </is>
-      </c>
-      <c r="B598" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" t="inlineStr">
-        <is>
-          <t>sell.ella</t>
-        </is>
-      </c>
-      <c r="B599" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="600">
-      <c r="A600" t="inlineStr">
-        <is>
-          <t>ian_henly</t>
-        </is>
-      </c>
-      <c r="B600" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="601">
-      <c r="A601" t="inlineStr">
-        <is>
-          <t>anabelle.cramer</t>
-        </is>
-      </c>
-      <c r="B601" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="602">
-      <c r="A602" t="inlineStr">
-        <is>
-          <t>themarshallapts</t>
-        </is>
-      </c>
-      <c r="B602" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="603">
-      <c r="A603" t="inlineStr">
-        <is>
-          <t>plysjonah</t>
-        </is>
-      </c>
-      <c r="B603" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="604">
-      <c r="A604" t="inlineStr">
-        <is>
-          <t>pey.erickson</t>
-        </is>
-      </c>
-      <c r="B604" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="605">
-      <c r="A605" t="inlineStr">
-        <is>
-          <t>ellahelmkamp</t>
-        </is>
-      </c>
-      <c r="B605" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="606">
-      <c r="A606" t="inlineStr">
-        <is>
-          <t>geronimoalvarado77</t>
-        </is>
-      </c>
-      <c r="B606" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="607">
-      <c r="A607" t="inlineStr">
-        <is>
-          <t>brismith_</t>
-        </is>
-      </c>
-      <c r="B607" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="608">
-      <c r="A608" t="inlineStr">
-        <is>
-          <t>genevalandonn</t>
-        </is>
-      </c>
-      <c r="B608" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="609">
-      <c r="A609" t="inlineStr">
-        <is>
-          <t>gracepraxmarer</t>
-        </is>
-      </c>
-      <c r="B609" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="610">
-      <c r="A610" t="inlineStr">
-        <is>
-          <t>kyladrenk</t>
-        </is>
-      </c>
-      <c r="B610" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="611">
-      <c r="A611" t="inlineStr">
-        <is>
-          <t>emmaeiselt</t>
-        </is>
-      </c>
-      <c r="B611" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="612">
-      <c r="A612" t="inlineStr">
-        <is>
-          <t>bree_.m</t>
-        </is>
-      </c>
-      <c r="B612" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="613">
-      <c r="A613" t="inlineStr">
-        <is>
-          <t>freshfrosh_</t>
-        </is>
-      </c>
-      <c r="B613" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="614">
-      <c r="A614" t="inlineStr">
-        <is>
-          <t>lauren.rhode_</t>
-        </is>
-      </c>
-      <c r="B614" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="615">
-      <c r="A615" t="inlineStr">
-        <is>
-          <t>murray_stebbins</t>
-        </is>
-      </c>
-      <c r="B615" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="616">
-      <c r="A616" t="inlineStr">
-        <is>
-          <t>reaganloomy</t>
-        </is>
-      </c>
-      <c r="B616" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="617">
-      <c r="A617" t="inlineStr">
-        <is>
-          <t>rachel.lee.mc</t>
-        </is>
-      </c>
-      <c r="B617" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="618">
-      <c r="A618" t="inlineStr">
-        <is>
-          <t>chrissyynockel</t>
-        </is>
-      </c>
-      <c r="B618" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="619">
-      <c r="A619" t="inlineStr">
-        <is>
-          <t>smoalim30</t>
-        </is>
-      </c>
-      <c r="B619" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="620">
-      <c r="A620" t="inlineStr">
-        <is>
-          <t>margaretduncan18</t>
-        </is>
-      </c>
-      <c r="B620" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="621">
-      <c r="A621" t="inlineStr">
-        <is>
-          <t>henrylefebvre</t>
-        </is>
-      </c>
-      <c r="B621" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="622">
-      <c r="A622" t="inlineStr">
-        <is>
-          <t>grazziotin78</t>
-        </is>
-      </c>
-      <c r="B622" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="623">
-      <c r="A623" t="inlineStr">
-        <is>
-          <t>fieldhousedinkytown</t>
-        </is>
-      </c>
-      <c r="B623" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="624">
-      <c r="A624" t="inlineStr">
-        <is>
-          <t>lbresette</t>
-        </is>
-      </c>
-      <c r="B624" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="625">
-      <c r="A625" t="inlineStr">
-        <is>
-          <t>isabellesget_</t>
-        </is>
-      </c>
-      <c r="B625" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="626">
-      <c r="A626" t="inlineStr">
-        <is>
-          <t>niko.zuber7</t>
-        </is>
-      </c>
-      <c r="B626" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="627">
-      <c r="A627" t="inlineStr">
-        <is>
-          <t>liviaveit</t>
-        </is>
-      </c>
-      <c r="B627" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="628">
-      <c r="A628" t="inlineStr">
-        <is>
-          <t>merrickmcfarling</t>
-        </is>
-      </c>
-      <c r="B628" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="629">
-      <c r="A629" t="inlineStr">
-        <is>
-          <t>jackvjacobsen</t>
-        </is>
-      </c>
-      <c r="B629" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="630">
-      <c r="A630" t="inlineStr">
-        <is>
-          <t>kara_wuebben</t>
-        </is>
-      </c>
-      <c r="B630" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="631">
-      <c r="A631" t="inlineStr">
-        <is>
-          <t>makda_mek_04</t>
-        </is>
-      </c>
-      <c r="B631" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="632">
-      <c r="A632" t="inlineStr">
-        <is>
-          <t>isabelperryy</t>
-        </is>
-      </c>
-      <c r="B632" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="633">
-      <c r="A633" t="inlineStr">
-        <is>
-          <t>_celinely</t>
-        </is>
-      </c>
-      <c r="B633" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="634">
-      <c r="A634" t="inlineStr">
-        <is>
-          <t>ct_0317_</t>
-        </is>
-      </c>
-      <c r="B634" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="635">
-      <c r="A635" t="inlineStr">
-        <is>
-          <t>aurora_per13</t>
-        </is>
-      </c>
-      <c r="B635" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="636">
-      <c r="A636" t="inlineStr">
-        <is>
-          <t>arthur.ilha1</t>
-        </is>
-      </c>
-      <c r="B636" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="637">
-      <c r="A637" t="inlineStr">
-        <is>
-          <t>jessicaabonce</t>
-        </is>
-      </c>
-      <c r="B637" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Marketing/umn.roomme.xlsx
+++ b/Marketing/umn.roomme.xlsx
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="B203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="B206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="B210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="B213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="B215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="B216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="B219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="B221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">

--- a/Marketing/umn.roomme.xlsx
+++ b/Marketing/umn.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B409"/>
+  <dimension ref="A1:B427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>gang_umn_on_ig</t>
+          <t>denisvrsevci</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>andr3w_hunt</t>
+          <t>xander_anderson1225</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>vikmurali</t>
+          <t>joeyschmidt15</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>anandsrinivasan99</t>
+          <t>lilyking8</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>katialabash</t>
+          <t>christian.tiera</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>sliva_marly_art</t>
+          <t>tonyliu2158</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>michael896834</t>
+          <t>elsa.feld</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>_davidmann_</t>
+          <t>maddy.eichstaedt</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>tommy.molloyy</t>
+          <t>hannahernest__</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>alex.woodbury</t>
+          <t>zoey_carda</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>mo.fadlia19</t>
+          <t>manasa_yerriboyina</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>evan_blumberg82</t>
+          <t>joshua_hoashin</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>alivia.meyer</t>
+          <t>isabel_shar14</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>sammy.umn</t>
+          <t>katiee_henry</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>juliet_sheagren</t>
+          <t>romewili</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>busybeebalanced</t>
+          <t>joe_frundt</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>katiee_henry</t>
+          <t>evan_shurson</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>soniabertos</t>
+          <t>izzypopkey</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>themarshallapts</t>
+          <t>dathanralston</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>annalisem0</t>
+          <t>laneybay23</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>shahd_hagelsafy</t>
+          <t>yagirlevaaa</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>nolan.trinh</t>
+          <t>tara_pegg</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>haleyrogers14</t>
+          <t>lukegrant04</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>max.cutting</t>
+          <t>therrick_04</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>lizziealsteen</t>
+          <t>arthur.ilha1</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>madelyn_lucile</t>
+          <t>sophiameents</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>addison_giannattasio</t>
+          <t>max.cutting</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>a_z2319</t>
+          <t>tannerk12</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>lucasjki</t>
+          <t>vikmurali</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>yagirlevaaa</t>
+          <t>annalisem0</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>cassiedoshi</t>
+          <t>nathan.werner06</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>perrywclifton</t>
+          <t>katya.mariaa</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>wplatycodon</t>
+          <t>celiazrust</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>indecisive_btch</t>
+          <t>b_plemel</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>viviamgoncalves</t>
+          <t>rahil_sheth_28</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ngs2465</t>
+          <t>akk.audrey.marie</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>daniel.kilmer_</t>
+          <t>dzoubs16</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>coc_umn</t>
+          <t>jjmckenna17_</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>cocohweber</t>
+          <t>jacksonwesterhaus</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>nepora6</t>
+          <t>lewiisash</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>natalia.tchomakhidze</t>
+          <t>brookezanski</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>umnhbc</t>
+          <t>kyla_betz</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>kate_korth</t>
+          <t>willvvoss</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>viglad237</t>
+          <t>reyna_rasmussen</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>vivecakarch</t>
+          <t>ashleyy.dean</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>alexmadeit69</t>
+          <t>bella.dukart</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>abby.maatz</t>
+          <t>emmahanso.n</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>natalia_alia_0505</t>
+          <t>reese.cummings</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>evan_west3</t>
+          <t>taylorbuthe</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ucommonsumn</t>
+          <t>gang_umn_on_ig</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>hopefurdaus</t>
+          <t>sarah_reisdorf</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>breeflom</t>
+          <t>maxholley10</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>_e__o__cnetsixe</t>
+          <t>anandsrinivasan99</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>abechouman</t>
+          <t>amirahhurst_</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>oliviamiskowskii</t>
+          <t>kara_wuebben</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>kaden.kirsch</t>
+          <t>gretch.rentsch</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>m.blodgett10</t>
+          <t>sofia_nora05</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>_sampeterss_</t>
+          <t>drew.kaluza</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>payton_goduto</t>
+          <t>nicolemp1979</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>payton.johnston_</t>
+          <t>john_jsbbb</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>cgj12345</t>
+          <t>kateestinson</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>bella.geno</t>
+          <t>alixandrafoxx</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>puregold.clearglass</t>
+          <t>lilyp.05</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>anna_christine_olson</t>
+          <t>illwyl</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ryan_kopp10</t>
+          <t>emily.martin33</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>mason_howard13</t>
+          <t>ellorarangel</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>lexiewyman_</t>
+          <t>aarizarshad_</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>sranderson101</t>
+          <t>romanluck5</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>thalia_blevins11</t>
+          <t>jim_j0hnson</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>grant1423</t>
+          <t>just.aubree.h</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>martaasmith</t>
+          <t>treyschaef</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>sanc04_</t>
+          <t>naamah.rochelle</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>benjaminblinn</t>
+          <t>taryn_schricker</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ellazeutschel</t>
+          <t>darren_tr.an</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>bryan_yan1</t>
+          <t>ethanoppedal</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>brady2850</t>
+          <t>ace.jayce</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>felipe_vazquez04</t>
+          <t>baylee.elliott</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>charliesorensen29</t>
+          <t>kallinilsen</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>maya_bueso</t>
+          <t>ryoya.yamada</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>kiaranewton_</t>
+          <t>tsionkonjo05</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>rdc._tracee</t>
+          <t>alexiss.piotrowski</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>victoria.andreano</t>
+          <t>lana.yang1</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>jeevan_1824</t>
+          <t>mollie.tolic</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ashkutz700</t>
+          <t>alexander_tls47</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ev.aanderson</t>
+          <t>maggiejensennn</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>that_jueneboy</t>
+          <t>deronboaamponsem</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>__carlyanderson__</t>
+          <t>andrewrecht</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>maxcarcamob</t>
+          <t>jiaulama</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1338,7 +1338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>utermarck</t>
+          <t>gbaxter280</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>michael_steidle3</t>
+          <t>daphne_moor</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1358,7 +1358,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ashley_knettel</t>
+          <t>_roxannelovelife</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>wyattfathermickgaming</t>
+          <t>umn_bros</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1378,7 +1378,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>katya.mariaa</t>
+          <t>solveigh_goldsmith</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1388,7 +1388,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>_eliza.albert</t>
+          <t>miaransavage</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1398,7 +1398,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ldpmacandcheese</t>
+          <t>ariana.q1</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>sigmapiumn</t>
+          <t>addison.neill3</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1418,7 +1418,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>natemunnagle</t>
+          <t>umnisye</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>elizabeth.longg</t>
+          <t>anna.skemp</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>saragraff_</t>
+          <t>avalizweber</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1448,7 +1448,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>jack.urt</t>
+          <t>kasiacragle</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>freshwaterscents</t>
+          <t>leah_catherinne</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1468,7 +1468,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>jazzywhooo</t>
+          <t>carolesanderss</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1478,7 +1478,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>lizzie.hartlieb</t>
+          <t>diversityumn</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -1488,7 +1488,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>shannapolance</t>
+          <t>aaliyah.acker</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -1498,7 +1498,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>holleemunson</t>
+          <t>jolie.stocke</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -1508,7 +1508,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>gabs.rinado</t>
+          <t>rilynnreed</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -1518,7 +1518,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>voyageurmom</t>
+          <t>shortlypmd</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>maurajuedes</t>
+          <t>shirin.jaswal</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -1538,7 +1538,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>joe_frundt</t>
+          <t>lilyjaskulke</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>sophiameents</t>
+          <t>amanuel.megerssa</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>leah_britt</t>
+          <t>ciaccio_9</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>jdnellie</t>
+          <t>samvahhajii</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -1578,7 +1578,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>maddyvandergeest</t>
+          <t>josephine_audrey</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -1588,7 +1588,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>madchen.ewig</t>
+          <t>izaanranaa</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>evajuliana315</t>
+          <t>mara.willette</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ryoya.yamada</t>
+          <t>patrick_lawrence6</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>henrymolhoek</t>
+          <t>colinsundeen</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>benletvin</t>
+          <t>madysonlacombe</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>umn_ruf</t>
+          <t>kylynlovell</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -1648,7 +1648,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ashtonfoulkemn</t>
+          <t>sidneykasper</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -1658,7 +1658,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ari_ayala_321</t>
+          <t>account2949383148</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -1668,7 +1668,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>soaf_the_loaf_</t>
+          <t>souleutions</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -1678,7 +1678,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>lukegrant04</t>
+          <t>taylorduvarney</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>jellyboy_lmax</t>
+          <t>darby.odwyer</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -1698,7 +1698,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ihasfingers2</t>
+          <t>justice.rylee</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -1708,7 +1708,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>lily_spaulding</t>
+          <t>graceweber30</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -1718,7 +1718,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ava.nellans</t>
+          <t>bellalandrews</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -1728,7 +1728,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>bryce.albrecht_</t>
+          <t>miaburnsweber</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -1738,7 +1738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ryleeeaster</t>
+          <t>ykiera.03</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -1748,907 +1748,907 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>jennasoerens_</t>
+          <t>sophiaemmert21</t>
         </is>
       </c>
       <c r="B132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>devin_koskey11</t>
+          <t>lizzie.hartlieb</t>
         </is>
       </c>
       <c r="B133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>graceturchin</t>
+          <t>taylorvanek</t>
         </is>
       </c>
       <c r="B134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ella.seboe</t>
+          <t>isaac.hepper</t>
         </is>
       </c>
       <c r="B135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>willy_arana_n</t>
+          <t>wangjessiee</t>
         </is>
       </c>
       <c r="B136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>umnco28</t>
+          <t>_sophiaclemens</t>
         </is>
       </c>
       <c r="B137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>caleb_kuseske19</t>
+          <t>gracie_welsh</t>
         </is>
       </c>
       <c r="B138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>_angelholm_22</t>
+          <t>madelinelommen</t>
         </is>
       </c>
       <c r="B139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>c_tauber23</t>
+          <t>peb_1305</t>
         </is>
       </c>
       <c r="B140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>marko.apartments</t>
+          <t>pyaj6277</t>
         </is>
       </c>
       <c r="B141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>thequadondelaware</t>
+          <t>maya_bueso</t>
         </is>
       </c>
       <c r="B142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>tysvenby</t>
+          <t>emmetttjohnson</t>
         </is>
       </c>
       <c r="B143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>charlienotcharless</t>
+          <t>laurenwesterhaus</t>
         </is>
       </c>
       <c r="B144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>tuyishimir2</t>
+          <t>samantha.ajsenberg</t>
         </is>
       </c>
       <c r="B145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>oliviasoiseth</t>
+          <t>yutiannnnnn6</t>
         </is>
       </c>
       <c r="B146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>jaydenshockman_</t>
+          <t>aashleyyddaviss</t>
         </is>
       </c>
       <c r="B147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>logan.linnertz</t>
+          <t>_makaylapearson_</t>
         </is>
       </c>
       <c r="B148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>avery_keller257</t>
+          <t>stephaniebannon_</t>
         </is>
       </c>
       <c r="B149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>mplsrooseveltfootball</t>
+          <t>hopemarie.kav</t>
         </is>
       </c>
       <c r="B150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>macy.biebs</t>
+          <t>alexmadeit69</t>
         </is>
       </c>
       <c r="B151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>simon.sriracha</t>
+          <t>bela_0626</t>
         </is>
       </c>
       <c r="B152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ryland_k_johnson</t>
+          <t>shayda_hendrickson</t>
         </is>
       </c>
       <c r="B153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>amy_moss31</t>
+          <t>kaysa_skoglund</t>
         </is>
       </c>
       <c r="B154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>lawanitah</t>
+          <t>gabby.pertzborn</t>
         </is>
       </c>
       <c r="B155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>regina_hersi</t>
+          <t>jeevan_1824</t>
         </is>
       </c>
       <c r="B156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>ei_spies</t>
+          <t>triangle_umn</t>
         </is>
       </c>
       <c r="B157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>josephinehultgren</t>
+          <t>annakboer</t>
         </is>
       </c>
       <c r="B158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>lindsay.tierney</t>
+          <t>ellie_mirelez</t>
         </is>
       </c>
       <c r="B159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>myla_zalaznik</t>
+          <t>colemaddio_</t>
         </is>
       </c>
       <c r="B160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>aryasn_12209</t>
+          <t>domsca16</t>
         </is>
       </c>
       <c r="B161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>nicked8</t>
+          <t>natemunnagle</t>
         </is>
       </c>
       <c r="B162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>amrutha.peri</t>
+          <t>maddie_landgraf</t>
         </is>
       </c>
       <c r="B163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>aryel.connelly</t>
+          <t>emaleigh.hulet</t>
         </is>
       </c>
       <c r="B164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>rowanhatchetttt</t>
+          <t>ishaanbakshi8</t>
         </is>
       </c>
       <c r="B165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>mena.abdelshahed</t>
+          <t>audddd_yuan</t>
         </is>
       </c>
       <c r="B166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>claral097</t>
+          <t>nn4bii</t>
         </is>
       </c>
       <c r="B167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>taryn_schricker</t>
+          <t>codybusch23</t>
         </is>
       </c>
       <c r="B168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>sophia_sanders20</t>
+          <t>addyhartway</t>
         </is>
       </c>
       <c r="B169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>xx__dwh__xx</t>
+          <t>kaden.kirsch</t>
         </is>
       </c>
       <c r="B170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>thetachi.umn</t>
+          <t>kate_mignone</t>
         </is>
       </c>
       <c r="B171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>rileythelemann</t>
+          <t>lucaplatt_</t>
         </is>
       </c>
       <c r="B172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>lexi.halgrimson</t>
+          <t>marissa.brinkmann</t>
         </is>
       </c>
       <c r="B173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>sam.silverman1</t>
+          <t>_sonalibhaskar_</t>
         </is>
       </c>
       <c r="B174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>madilynnyang</t>
+          <t>__tez__</t>
         </is>
       </c>
       <c r="B175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>annisanguyens</t>
+          <t>tuyishimir2</t>
         </is>
       </c>
       <c r="B176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>quaddmommy</t>
+          <t>aurora_per13</t>
         </is>
       </c>
       <c r="B177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>joshua_hoashin</t>
+          <t>chazz_mu</t>
         </is>
       </c>
       <c r="B178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>kevin.huberx</t>
+          <t>deya.ahm</t>
         </is>
       </c>
       <c r="B179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>josh.neuenschwander</t>
+          <t>izzy.plesac</t>
         </is>
       </c>
       <c r="B180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>emaleigh.hulet</t>
+          <t>brooke.kraemer</t>
         </is>
       </c>
       <c r="B181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>anika.jaspal</t>
+          <t>berriosjosue701</t>
         </is>
       </c>
       <c r="B182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>woodyhandley</t>
+          <t>zachreifff</t>
         </is>
       </c>
       <c r="B183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>_maxloge</t>
+          <t>lexi.a.closet</t>
         </is>
       </c>
       <c r="B184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>brooke.08</t>
+          <t>bella.geno</t>
         </is>
       </c>
       <c r="B185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>zanderroemer</t>
+          <t>marlee.brooke_</t>
         </is>
       </c>
       <c r="B186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>ian_gekara_</t>
+          <t>brady_adelman</t>
         </is>
       </c>
       <c r="B187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>prathulrao</t>
+          <t>ian_henly</t>
         </is>
       </c>
       <c r="B188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>ava.scroggins</t>
+          <t>amberllawrence</t>
         </is>
       </c>
       <c r="B189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>evergreens_and_lace_boutique</t>
+          <t>armando_dranget</t>
         </is>
       </c>
       <c r="B190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>tarunevani</t>
+          <t>makennalutes</t>
         </is>
       </c>
       <c r="B191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>sofia.parrdo</t>
+          <t>_angelholm_22</t>
         </is>
       </c>
       <c r="B192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>mariamsoleiman__</t>
+          <t>anna_christine_olson</t>
         </is>
       </c>
       <c r="B193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>emerson_mae_</t>
+          <t>grant_heim</t>
         </is>
       </c>
       <c r="B194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>destinee_fregoso</t>
+          <t>ari_ayala_321</t>
         </is>
       </c>
       <c r="B195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>cole_b_p</t>
+          <t>sell.ella</t>
         </is>
       </c>
       <c r="B196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>justaspam938471</t>
+          <t>chloe_mignone24</t>
         </is>
       </c>
       <c r="B197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>kayannasmarie</t>
+          <t>jedeutscher10</t>
         </is>
       </c>
       <c r="B198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>justice.rylee</t>
+          <t>addie.lerfald</t>
         </is>
       </c>
       <c r="B199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>kathryn_xiong</t>
+          <t>dyl_allamon</t>
         </is>
       </c>
       <c r="B200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>ava_abryzo</t>
+          <t>autumn.whited</t>
         </is>
       </c>
       <c r="B201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>manasa_yerriboyina</t>
+          <t>nathantran1204</t>
         </is>
       </c>
       <c r="B202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>shangkang_xz</t>
+          <t>chrisscout04</t>
         </is>
       </c>
       <c r="B203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>devynthomas_</t>
+          <t>sand.lexi</t>
         </is>
       </c>
       <c r="B204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>diversityumn</t>
+          <t>ellie.phalen</t>
         </is>
       </c>
       <c r="B205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>madie.flodeen</t>
+          <t>meek__6579</t>
         </is>
       </c>
       <c r="B206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>iuc_4s</t>
+          <t>addiewickenheiser</t>
         </is>
       </c>
       <c r="B207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>dawakhim</t>
+          <t>ttaliawilliams</t>
         </is>
       </c>
       <c r="B208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>erickrist.5</t>
+          <t>maddiescott37</t>
         </is>
       </c>
       <c r="B209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>lindsey1watson</t>
+          <t>emerson_mae_</t>
         </is>
       </c>
       <c r="B210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>eitanschoenberg</t>
+          <t>kennrosss</t>
         </is>
       </c>
       <c r="B211" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>lauren.rhode_</t>
+          <t>fridleyseniors2024</t>
         </is>
       </c>
       <c r="B212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>kellshockman</t>
+          <t>mantunez90</t>
         </is>
       </c>
       <c r="B213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>_aaronnovick</t>
+          <t>lydia.klaseus</t>
         </is>
       </c>
       <c r="B214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>rons0sa</t>
+          <t>jjasminemoore</t>
         </is>
       </c>
       <c r="B215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>jeffjones69967</t>
+          <t>jakewebb5</t>
         </is>
       </c>
       <c r="B216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>jreinhardt2</t>
+          <t>mckennaroberts_</t>
         </is>
       </c>
       <c r="B217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>elliepthayer</t>
+          <t>erin.anderson14</t>
         </is>
       </c>
       <c r="B218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>jcords312</t>
+          <t>caleb_kuseske19</t>
         </is>
       </c>
       <c r="B219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>sofia_nora4</t>
+          <t>caleb.norton_17</t>
         </is>
       </c>
       <c r="B220" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>meganstricklnd</t>
+          <t>pulgatar0002003</t>
         </is>
       </c>
       <c r="B221" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>bellesalisburyy</t>
+          <t>siennaaperkins</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -2658,7 +2658,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>romanluck5</t>
+          <t>cgj12345</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -2668,7 +2668,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>shooter_mcdavan</t>
+          <t>emmacabage</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -2678,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>marissa.brinkmann</t>
+          <t>chris.natonson</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -2688,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>sell.ella</t>
+          <t>naasib28</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -2698,7 +2698,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>nadia.kim14</t>
+          <t>gracie_goldammer</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -2708,7 +2708,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>deya.ahm</t>
+          <t>marisa.johanning</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -2718,7 +2718,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>yugo.412lofts</t>
+          <t>bora.nimisha</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -2728,7 +2728,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>genevalandonn</t>
+          <t>kate.femali</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -2738,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>jandgrall</t>
+          <t>grant1423</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -2748,7 +2748,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>maxpeterson81</t>
+          <t>ming_0.28</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -2758,7 +2758,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>cole_james917</t>
+          <t>lexiewestlund</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -2768,7 +2768,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>toddtormanen</t>
+          <t>k8tlindsay</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -2778,7 +2778,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>ellakst.myer</t>
+          <t>conmeam</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -2788,7 +2788,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>alison.m._</t>
+          <t>maggiepape4</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -2798,7 +2798,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>sirena.r01</t>
+          <t>_ellieschaefer</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -2808,7 +2808,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>milesgstewart</t>
+          <t>sophia_nguyen50</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -2818,7 +2818,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>siennaaperkins</t>
+          <t>sophiemlyman</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -2828,7 +2828,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>jenschd</t>
+          <t>mikahelstad</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -2838,7 +2838,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>kev1n.mart1nez</t>
+          <t>michaelc.17</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -2848,7 +2848,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>isaac_ingle02</t>
+          <t>stella.2024</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -2858,7 +2858,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>nicknelson0</t>
+          <t>regina_hersi</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -2868,7 +2868,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>ilianabalok</t>
+          <t>addie.kent</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -2878,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>aydinkabir</t>
+          <t>presliestewart</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -2888,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>charliehussin</t>
+          <t>aryel.connelly</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>umnisye</t>
+          <t>taylor.sedgwick</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>josephine_audrey</t>
+          <t>natalia.tchomakhidze</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>tess_freitag</t>
+          <t>iytstagram</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -2928,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>annamariemurphyy</t>
+          <t>maddy.morrell</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -2938,7 +2938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>chaselschwartz</t>
+          <t>leesiewert</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -2948,7 +2948,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>andicas01</t>
+          <t>hannahlschulz</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -2958,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>christian.tiera</t>
+          <t>sophieeiselt</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>nicholasmbriggs0</t>
+          <t>graceseering</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -2978,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>alex_emaci</t>
+          <t>nolanbehnkee</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -2988,7 +2988,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>josh_lazar123</t>
+          <t>meganstephann</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -2998,7 +2998,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>maxmcenelly_</t>
+          <t>bradygille</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -3008,7 +3008,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>emmetttjohnson</t>
+          <t>emmamccolm_</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -3018,7 +3018,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>viktor_radev</t>
+          <t>grace.matvick</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -3028,7 +3028,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>mahmoud.aouam</t>
+          <t>natty_hahn</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -3038,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>codybusch23</t>
+          <t>abry_fit</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -3048,7 +3048,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>fieldhousedinkytown</t>
+          <t>maddiehirsch_</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -3058,7 +3058,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>kevi.polk</t>
+          <t>nathan_ramberg05</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>cynthiamghannoum</t>
+          <t>evan_blumberg82</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>john_jsbbb</t>
+          <t>gracepraxmarer</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>mady_nordstrom_</t>
+          <t>annasolson</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>sydneypetersonnn</t>
+          <t>annaraskob</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -3108,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>czech.ethan</t>
+          <t>alexbalthazor_</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -3118,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>joeyschmidt15</t>
+          <t>holleemunson</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -3128,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>grace.wehri</t>
+          <t>isa.rodriguez405</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -3138,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>mckennaroberts_</t>
+          <t>kathryn_xiong</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -3148,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>_roxannelovelife</t>
+          <t>laena.mueller</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>jkrags23</t>
+          <t>nikhil_athmaram</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -3168,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>denisvrsevci</t>
+          <t>madelyngrover</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -3178,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>aby.roush</t>
+          <t>allisonstreitmatter</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -3188,7 +3188,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>cassi.sosinski</t>
+          <t>isabellesget_</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -3198,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>briahoffarth</t>
+          <t>llexihauser</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -3208,7 +3208,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>_samrinzel</t>
+          <t>kristyhoang_</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -3218,7 +3218,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>sokmen_yem</t>
+          <t>marko.apartments</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -3228,7 +3228,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>eleanorberkness</t>
+          <t>annabellehusfeldt</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -3238,7 +3238,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>leannatran_</t>
+          <t>viktor_radev</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -3248,7 +3248,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>graceweber30</t>
+          <t>madisonpeterfeso</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>ones_and_zer0s</t>
+          <t>leoleoleoye</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>louknanebear</t>
+          <t>emma.grace.watson</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>travypatty84</t>
+          <t>madison.mielke</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -3288,7 +3288,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>flannerycotner</t>
+          <t>haerymahmod</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>llexihauser</t>
+          <t>jane.piette</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>_rodas0</t>
+          <t>giangbonamto</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -3318,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>ethanjhofmeister</t>
+          <t>sophiamarkfelder</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>gracepraxmarer</t>
+          <t>blakebeissel</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>shortlypmd</t>
+          <t>angelicaruiz14</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>liviaveit</t>
+          <t>lily_spaulding</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>julie.edman</t>
+          <t>zoezweber</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>danielaokeefe04</t>
+          <t>aalex_loza</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>_annleigh</t>
+          <t>peyton.tayl0r</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>caleb.norton_17</t>
+          <t>umn_languages</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>caleb_mcgrath23</t>
+          <t>philhood1</t>
         </is>
       </c>
       <c r="B297" t="b">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>groovesalonco</t>
+          <t>abby.buendorf</t>
         </is>
       </c>
       <c r="B298" t="b">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>jaxon.huber</t>
+          <t>ellazeutschel</t>
         </is>
       </c>
       <c r="B299" t="b">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>miracleheidi</t>
+          <t>jacksimon._</t>
         </is>
       </c>
       <c r="B300" t="b">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>arnav.garg25</t>
+          <t>ngs2465</t>
         </is>
       </c>
       <c r="B301" t="b">
@@ -3448,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>stelelor21</t>
+          <t>loganbruska</t>
         </is>
       </c>
       <c r="B302" t="b">
@@ -3458,7 +3458,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>yjymywjcwpnh8</t>
+          <t>audreyywolff</t>
         </is>
       </c>
       <c r="B303" t="b">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>nataliealecu</t>
+          <t>daniel.kilmer_</t>
         </is>
       </c>
       <c r="B304" t="b">
@@ -3478,7 +3478,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>sofielocati</t>
+          <t>leannatran_</t>
         </is>
       </c>
       <c r="B305" t="b">
@@ -3488,7 +3488,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>kenzillies</t>
+          <t>alexpeckey</t>
         </is>
       </c>
       <c r="B306" t="b">
@@ -3498,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>kyleemccaffery</t>
+          <t>devon.losey</t>
         </is>
       </c>
       <c r="B307" t="b">
@@ -3508,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>laneybay23</t>
+          <t>zaynahqamar</t>
         </is>
       </c>
       <c r="B308" t="b">
@@ -3518,7 +3518,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>ming_0.28</t>
+          <t>jeffr_eyanderson9281</t>
         </is>
       </c>
       <c r="B309" t="b">
@@ -3528,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>brooklynzrust</t>
+          <t>conner_mcfarlane</t>
         </is>
       </c>
       <c r="B310" t="b">
@@ -3538,7 +3538,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>sidneykasper</t>
+          <t>taylor.persby</t>
         </is>
       </c>
       <c r="B311" t="b">
@@ -3548,7 +3548,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>joeymezei</t>
+          <t>_e__o__cnetsixe</t>
         </is>
       </c>
       <c r="B312" t="b">
@@ -3558,7 +3558,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>freshfrosh_</t>
+          <t>meganleschinsky_</t>
         </is>
       </c>
       <c r="B313" t="b">
@@ -3568,7 +3568,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>ginakazmerski</t>
+          <t>sum.connolly</t>
         </is>
       </c>
       <c r="B314" t="b">
@@ -3578,7 +3578,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>fluridad</t>
+          <t>ryleeeaster</t>
         </is>
       </c>
       <c r="B315" t="b">
@@ -3588,7 +3588,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>mallory__nelson</t>
+          <t>brooklynzrust</t>
         </is>
       </c>
       <c r="B316" t="b">
@@ -3598,7 +3598,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>zaya_esterberg</t>
+          <t>k_mads15</t>
         </is>
       </c>
       <c r="B317" t="b">
@@ -3608,7 +3608,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>john_dudd</t>
+          <t>isabella.phrak</t>
         </is>
       </c>
       <c r="B318" t="b">
@@ -3618,7 +3618,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>blakebeissel</t>
+          <t>_matthew.culligan</t>
         </is>
       </c>
       <c r="B319" t="b">
@@ -3628,7 +3628,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>alexlara456</t>
+          <t>andingcrystal</t>
         </is>
       </c>
       <c r="B320" t="b">
@@ -3638,7 +3638,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>gabbi_ashpole</t>
+          <t>_caseypeltier</t>
         </is>
       </c>
       <c r="B321" t="b">
@@ -3648,7 +3648,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>kristian_hoffman2022</t>
+          <t>alex_emaci</t>
         </is>
       </c>
       <c r="B322" t="b">
@@ -3658,7 +3658,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>kierralevi</t>
+          <t>_samrinzel</t>
         </is>
       </c>
       <c r="B323" t="b">
@@ -3668,7 +3668,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>angel_de_jesus777</t>
+          <t>_eesha_k_</t>
         </is>
       </c>
       <c r="B324" t="b">
@@ -3678,7 +3678,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>c_tautges</t>
+          <t>quaddmommy</t>
         </is>
       </c>
       <c r="B325" t="b">
@@ -3688,7 +3688,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>alexander_tls47</t>
+          <t>sahana.564</t>
         </is>
       </c>
       <c r="B326" t="b">
@@ -3698,7 +3698,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>will.r.anderson</t>
+          <t>ophelia_rose21</t>
         </is>
       </c>
       <c r="B327" t="b">
@@ -3708,7 +3708,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>ananyaraval05</t>
+          <t>ella.kester_</t>
         </is>
       </c>
       <c r="B328" t="b">
@@ -3718,7 +3718,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>lucy.kurup</t>
+          <t>neeraj_m23</t>
         </is>
       </c>
       <c r="B329" t="b">
@@ -3728,7 +3728,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>_niceverson_</t>
+          <t>erikaaturner</t>
         </is>
       </c>
       <c r="B330" t="b">
@@ -3738,7 +3738,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>policethx</t>
+          <t>lidiatirifia</t>
         </is>
       </c>
       <c r="B331" t="b">
@@ -3748,7 +3748,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>autumn.whited</t>
+          <t>mallory__nelson</t>
         </is>
       </c>
       <c r="B332" t="b">
@@ -3758,7 +3758,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>whitneytruesdell</t>
+          <t>brady2850</t>
         </is>
       </c>
       <c r="B333" t="b">
@@ -3768,7 +3768,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>lleyton_lee</t>
+          <t>sophieroulandd</t>
         </is>
       </c>
       <c r="B334" t="b">
@@ -3778,7 +3778,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>romewili</t>
+          <t>ryland_k_johnson</t>
         </is>
       </c>
       <c r="B335" t="b">
@@ -3788,7 +3788,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>___hannah_emma___</t>
+          <t>olivya_yager</t>
         </is>
       </c>
       <c r="B336" t="b">
@@ -3798,7 +3798,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>ahshaam_abu</t>
+          <t>julianna.mcgillivray</t>
         </is>
       </c>
       <c r="B337" t="b">
@@ -3808,7 +3808,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>triinite</t>
+          <t>jackmadden2023</t>
         </is>
       </c>
       <c r="B338" t="b">
@@ -3818,7 +3818,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>mj1brew</t>
+          <t>mplsrooseveltfootball</t>
         </is>
       </c>
       <c r="B339" t="b">
@@ -3828,7 +3828,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>jarrodsollady</t>
+          <t>elsadev24</t>
         </is>
       </c>
       <c r="B340" t="b">
@@ -3838,7 +3838,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>cooper.neu</t>
+          <t>ellie.m.wheeler</t>
         </is>
       </c>
       <c r="B341" t="b">
@@ -3848,7 +3848,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>tonyliu2158</t>
+          <t>kevin.huberx</t>
         </is>
       </c>
       <c r="B342" t="b">
@@ -3858,7 +3858,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>henry4ly</t>
+          <t>myla_zalaznik</t>
         </is>
       </c>
       <c r="B343" t="b">
@@ -3868,7 +3868,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>tsionkonjo05</t>
+          <t>molly.erickson</t>
         </is>
       </c>
       <c r="B344" t="b">
@@ -3878,7 +3878,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>patrick_conr0y</t>
+          <t>briannaestness</t>
         </is>
       </c>
       <c r="B345" t="b">
@@ -3888,7 +3888,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>unparalleled_parking</t>
+          <t>annakugler_</t>
         </is>
       </c>
       <c r="B346" t="b">
@@ -3898,7 +3898,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>zeeshqamar</t>
+          <t>ava.nellans</t>
         </is>
       </c>
       <c r="B347" t="b">
@@ -3908,7 +3908,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>wyatth0lt</t>
+          <t>mia.karr</t>
         </is>
       </c>
       <c r="B348" t="b">
@@ -3918,7 +3918,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>ko_grogin</t>
+          <t>olivialuu__</t>
         </is>
       </c>
       <c r="B349" t="b">
@@ -3928,7 +3928,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>brody.laska</t>
+          <t>annagunderson29</t>
         </is>
       </c>
       <c r="B350" t="b">
@@ -3938,7 +3938,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>dreamsuwat</t>
+          <t>marieearndorfer</t>
         </is>
       </c>
       <c r="B351" t="b">
@@ -3948,7 +3948,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>keener_248</t>
+          <t>brian_jlewis</t>
         </is>
       </c>
       <c r="B352" t="b">
@@ -3958,7 +3958,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>abrahamb101</t>
+          <t>_celinely</t>
         </is>
       </c>
       <c r="B353" t="b">
@@ -3968,7 +3968,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>jnzcar</t>
+          <t>megan.mishuk</t>
         </is>
       </c>
       <c r="B354" t="b">
@@ -3978,7 +3978,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>nora_doyle_</t>
+          <t>josh.neuenschwander</t>
         </is>
       </c>
       <c r="B355" t="b">
@@ -3988,7 +3988,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>abry_fit</t>
+          <t>megan_steinmetz</t>
         </is>
       </c>
       <c r="B356" t="b">
@@ -3998,7 +3998,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>grazziotin78</t>
+          <t>jaredmeyers_</t>
         </is>
       </c>
       <c r="B357" t="b">
@@ -4008,7 +4008,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>kate_farbie_mwende</t>
+          <t>andrew_alsum</t>
         </is>
       </c>
       <c r="B358" t="b">
@@ -4018,7 +4018,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>smoalim30</t>
+          <t>ayla.olsen</t>
         </is>
       </c>
       <c r="B359" t="b">
@@ -4028,7 +4028,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>svfreitag</t>
+          <t>andicas01</t>
         </is>
       </c>
       <c r="B360" t="b">
@@ -4038,7 +4038,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>dzoubs16</t>
+          <t>madelyn_lucile</t>
         </is>
       </c>
       <c r="B361" t="b">
@@ -4048,7 +4048,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>adhithi_maran</t>
+          <t>sophiedingmann</t>
         </is>
       </c>
       <c r="B362" t="b">
@@ -4058,7 +4058,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>neeraj_m23</t>
+          <t>mckennahdan</t>
         </is>
       </c>
       <c r="B363" t="b">
@@ -4068,7 +4068,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>3sjsjs2dndn000</t>
+          <t>sofia.parrdo</t>
         </is>
       </c>
       <c r="B364" t="b">
@@ -4078,7 +4078,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>umn_languages</t>
+          <t>cami.redpath</t>
         </is>
       </c>
       <c r="B365" t="b">
@@ -4088,7 +4088,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>addyhartway</t>
+          <t>ev.aanderson</t>
         </is>
       </c>
       <c r="B366" t="b">
@@ -4098,7 +4098,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>maddiehirsch_</t>
+          <t>chrissyynockel</t>
         </is>
       </c>
       <c r="B367" t="b">
@@ -4108,7 +4108,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>hannahchebert23</t>
+          <t>maddienewhouse</t>
         </is>
       </c>
       <c r="B368" t="b">
@@ -4118,7 +4118,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>alex_645_</t>
+          <t>ava.scroggins</t>
         </is>
       </c>
       <c r="B369" t="b">
@@ -4128,7 +4128,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>emmett.schumacher</t>
+          <t>prathulrao</t>
         </is>
       </c>
       <c r="B370" t="b">
@@ -4138,7 +4138,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>kas_arm</t>
+          <t>_aliyah.nunn</t>
         </is>
       </c>
       <c r="B371" t="b">
@@ -4148,7 +4148,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>rachael.tsoi</t>
+          <t>ben.kushner84</t>
         </is>
       </c>
       <c r="B372" t="b">
@@ -4158,7 +4158,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>homerjaymn</t>
+          <t>avadisano</t>
         </is>
       </c>
       <c r="B373" t="b">
@@ -4168,7 +4168,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>ceo.strah</t>
+          <t>canannabraham</t>
         </is>
       </c>
       <c r="B374" t="b">
@@ -4178,7 +4178,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>libbydingmann</t>
+          <t>meyerkreutzmann</t>
         </is>
       </c>
       <c r="B375" t="b">
@@ -4188,7 +4188,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>brittanymak1</t>
+          <t>emilyrenstrom</t>
         </is>
       </c>
       <c r="B376" t="b">
@@ -4198,7 +4198,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>reya.hadsall</t>
+          <t>isaac_ramirez356</t>
         </is>
       </c>
       <c r="B377" t="b">
@@ -4208,7 +4208,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>patrick_lawrence6</t>
+          <t>evan_west3</t>
         </is>
       </c>
       <c r="B378" t="b">
@@ -4218,7 +4218,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>sophialancastr</t>
+          <t>aby.roush</t>
         </is>
       </c>
       <c r="B379" t="b">
@@ -4228,7 +4228,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>naasib28</t>
+          <t>bellaafonso</t>
         </is>
       </c>
       <c r="B380" t="b">
@@ -4238,7 +4238,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>saaransh_agarwal</t>
+          <t>lizziealsteen</t>
         </is>
       </c>
       <c r="B381" t="b">
@@ -4248,7 +4248,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>jennyknaebemeulemans</t>
+          <t>zorasmith</t>
         </is>
       </c>
       <c r="B382" t="b">
@@ -4258,7 +4258,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>fizztulane</t>
+          <t>reaganmelquist</t>
         </is>
       </c>
       <c r="B383" t="b">
@@ -4268,7 +4268,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>maggieengebretson</t>
+          <t>gabriela.kotovsky</t>
         </is>
       </c>
       <c r="B384" t="b">
@@ -4278,7 +4278,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>kayliekilpela</t>
+          <t>danniashpole</t>
         </is>
       </c>
       <c r="B385" t="b">
@@ -4288,7 +4288,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>lily._.dino</t>
+          <t>urva.jha</t>
         </is>
       </c>
       <c r="B386" t="b">
@@ -4298,7 +4298,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>isabella.colls</t>
+          <t>reegan.welhaven</t>
         </is>
       </c>
       <c r="B387" t="b">
@@ -4308,7 +4308,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>annika__evelyn</t>
+          <t>estella.grace</t>
         </is>
       </c>
       <c r="B388" t="b">
@@ -4318,7 +4318,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>_sonalibhaskar_</t>
+          <t>amjacobs005</t>
         </is>
       </c>
       <c r="B389" t="b">
@@ -4328,7 +4328,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>madisonnregina</t>
+          <t>vivecakarch</t>
         </is>
       </c>
       <c r="B390" t="b">
@@ -4338,7 +4338,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>jacqui_kelly03</t>
+          <t>dawakhim</t>
         </is>
       </c>
       <c r="B391" t="b">
@@ -4348,7 +4348,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>alex_ramosrr</t>
+          <t>ernamuminovic_</t>
         </is>
       </c>
       <c r="B392" t="b">
@@ -4358,7 +4358,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>zea.brown</t>
+          <t>jason_theonly12</t>
         </is>
       </c>
       <c r="B393" t="b">
@@ -4368,7 +4368,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>manny_lister</t>
+          <t>homerjaymn</t>
         </is>
       </c>
       <c r="B394" t="b">
@@ -4378,7 +4378,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>giangbonamto</t>
+          <t>lindseyhart5</t>
         </is>
       </c>
       <c r="B395" t="b">
@@ -4388,7 +4388,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>christinewilkins</t>
+          <t>_davidmann_</t>
         </is>
       </c>
       <c r="B396" t="b">
@@ -4398,7 +4398,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>bora.nimisha</t>
+          <t>olivia.osvold</t>
         </is>
       </c>
       <c r="B397" t="b">
@@ -4408,7 +4408,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>colemaddio_</t>
+          <t>keagan__anderson</t>
         </is>
       </c>
       <c r="B398" t="b">
@@ -4418,7 +4418,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>anthonyandersonm</t>
+          <t>sophia_martin7</t>
         </is>
       </c>
       <c r="B399" t="b">
@@ -4428,7 +4428,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>grant_geis</t>
+          <t>izpetersonn</t>
         </is>
       </c>
       <c r="B400" t="b">
@@ -4438,7 +4438,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>anna_adamson</t>
+          <t>orinnjust</t>
         </is>
       </c>
       <c r="B401" t="b">
@@ -4448,7 +4448,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>_wilson.max</t>
+          <t>ishadi.agostinho</t>
         </is>
       </c>
       <c r="B402" t="b">
@@ -4458,7 +4458,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>ixiong181</t>
+          <t>thetachi.umn</t>
         </is>
       </c>
       <c r="B403" t="b">
@@ -4468,7 +4468,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>pamelana79</t>
+          <t>abrahamb101</t>
         </is>
       </c>
       <c r="B404" t="b">
@@ -4478,7 +4478,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>jeffrey_boafo</t>
+          <t>a.schloesser</t>
         </is>
       </c>
       <c r="B405" t="b">
@@ -4488,7 +4488,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>lexi.addie</t>
+          <t>toddtormanen</t>
         </is>
       </c>
       <c r="B406" t="b">
@@ -4498,7 +4498,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>imnzzzzzz15</t>
+          <t>_alex_larson</t>
         </is>
       </c>
       <c r="B407" t="b">
@@ -4508,7 +4508,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>nordloh.andy</t>
+          <t>imara.mackie</t>
         </is>
       </c>
       <c r="B408" t="b">
@@ -4518,10 +4518,190 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>_jack_akiva2</t>
+          <t>xx__dwh__xx</t>
         </is>
       </c>
       <c r="B409" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>sophiaroyle9</t>
+        </is>
+      </c>
+      <c r="B410" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>unparalleled_parking</t>
+        </is>
+      </c>
+      <c r="B411" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>gabbi_ashpole</t>
+        </is>
+      </c>
+      <c r="B412" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>ahshaam_abu</t>
+        </is>
+      </c>
+      <c r="B413" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>paytonmickschl</t>
+        </is>
+      </c>
+      <c r="B414" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>voyageurmom</t>
+        </is>
+      </c>
+      <c r="B415" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>eric_bendall</t>
+        </is>
+      </c>
+      <c r="B416" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>sophiahanel</t>
+        </is>
+      </c>
+      <c r="B417" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>izzie.tuma</t>
+        </is>
+      </c>
+      <c r="B418" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>lydia.sandvig</t>
+        </is>
+      </c>
+      <c r="B419" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>brayden.holmes.99</t>
+        </is>
+      </c>
+      <c r="B420" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>nitaa.tt</t>
+        </is>
+      </c>
+      <c r="B421" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>kirubelwolde</t>
+        </is>
+      </c>
+      <c r="B422" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>kendylnewcomb</t>
+        </is>
+      </c>
+      <c r="B423" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>kaleighegan006</t>
+        </is>
+      </c>
+      <c r="B424" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>ruby.royston</t>
+        </is>
+      </c>
+      <c r="B425" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>clareddaly</t>
+        </is>
+      </c>
+      <c r="B426" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>niko.zuber7</t>
+        </is>
+      </c>
+      <c r="B427" t="b">
         <v>0</v>
       </c>
     </row>
